--- a/ZG.xlsx
+++ b/ZG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090BB084-DF44-E34F-AE51-0644274E6982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6E632-B418-DB42-A8BE-E5A6C4E3FC9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21140" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="140">
   <si>
     <t>Q117</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>https://www.bridgeinteractive.com/</t>
-  </si>
-  <si>
-    <t>1 307-1 324</t>
   </si>
   <si>
     <t>OE y/y</t>
@@ -1153,10 +1150,10 @@
   <dimension ref="A1:DR71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1178,10 +1175,10 @@
         <v>65</v>
       </c>
       <c r="C2" s="24">
-        <v>107.21</v>
+        <v>136.53</v>
       </c>
       <c r="D2" s="72">
-        <v>44152</v>
+        <v>44200</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>29</v>
@@ -1203,7 +1200,7 @@
         <v>242.63200000000001</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>30</v>
@@ -1225,7 +1222,7 @@
       </c>
       <c r="C4" s="29">
         <f>C2*C3</f>
-        <v>26012.576719999997</v>
+        <v>33126.54696</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>31</v>
@@ -1251,7 +1248,7 @@
         <v>1712</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
@@ -1274,7 +1271,7 @@
       </c>
       <c r="C6" s="29">
         <f>C4-C5</f>
-        <v>24300.576719999997</v>
+        <v>31414.54696</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>33</v>
@@ -1294,7 +1291,7 @@
       </c>
       <c r="C7" s="33">
         <f>C6/C3</f>
-        <v>100.15404695176233</v>
+        <v>129.47404695176235</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>70</v>
@@ -1305,7 +1302,7 @@
       </c>
       <c r="G7" s="36">
         <f>F7/C2-1</f>
-        <v>0.59661469858383476</v>
+        <v>0.25373955786400737</v>
       </c>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
@@ -3136,8 +3133,8 @@
       <c r="DR21" s="48"/>
     </row>
     <row r="22" spans="1:122" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="58" t="s">
-        <v>134</v>
+      <c r="E22" s="58">
+        <v>1307</v>
       </c>
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.15">
@@ -6904,7 +6901,7 @@
     </row>
     <row r="42" spans="1:122" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="66"/>
       <c r="C42" s="67">
@@ -10093,24 +10090,24 @@
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18">
         <f>(C52/C36)/$C$2</f>
-        <v>0.12571294795785837</v>
+        <v>9.8715924343089387E-2</v>
       </c>
       <c r="D64" s="18">
         <f>(D52/D36)/$C$2</f>
-        <v>0.11082295079106765</v>
+        <v>8.7023573971364246E-2</v>
       </c>
       <c r="E64" s="18">
         <f>(E52/E36)/$C$2</f>
-        <v>0.10084465309784783</v>
+        <v>7.9188129045779432E-2</v>
       </c>
       <c r="F64" s="18">
         <f>(F52/F36)/$C$2</f>
-        <v>9.7484266017064961E-2</v>
+        <v>7.6549389582432681E-2</v>
       </c>
       <c r="G64" s="68"/>
       <c r="H64" s="2"/>
@@ -10678,6 +10675,18 @@
       <c r="A71" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C71" s="36">
+        <f>C12/B12-1</f>
+        <v>0.72518917345750911</v>
+      </c>
+      <c r="D71" s="36">
+        <f>D12/C12-1</f>
+        <v>0.13296219757355932</v>
+      </c>
+      <c r="E71" s="36">
+        <f>E12/D12-1</f>
+        <v>-1.6267325135561173E-2</v>
+      </c>
       <c r="F71" s="36">
         <f>F12/E12-1</f>
         <v>0.26135216952573148</v>
@@ -10722,7 +10731,7 @@
   <dimension ref="A1:Z68"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
@@ -10814,13 +10823,13 @@
         <v>88</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -11326,7 +11335,7 @@
         <v>186.1</v>
       </c>
       <c r="P13" s="64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="62"/>
@@ -11465,7 +11474,7 @@
         <v>325</v>
       </c>
       <c r="P16" s="37">
-        <f t="shared" ref="P16:W16" si="2">SUM(P3:P5)</f>
+        <f t="shared" ref="P16:V16" si="2">SUM(P3:P5)</f>
         <v>343</v>
       </c>
       <c r="Q16" s="37">
@@ -11653,7 +11662,7 @@
         <v>329</v>
       </c>
       <c r="T18" s="39">
-        <f t="shared" ref="T18:W18" si="6">T16-T17</f>
+        <f t="shared" ref="T18:V18" si="6">T16-T17</f>
         <v>345</v>
       </c>
       <c r="U18" s="39">
@@ -13831,7 +13840,7 @@
         <v>3452</v>
       </c>
       <c r="U49" s="41">
-        <f t="shared" ref="U49:W49" si="63">U45-U46</f>
+        <f t="shared" ref="U49:V49" si="63">U45-U46</f>
         <v>3435</v>
       </c>
       <c r="V49" s="40">
@@ -14245,31 +14254,31 @@
         <v>115</v>
       </c>
       <c r="R60" s="17">
-        <f>R3/N3-1</f>
+        <f t="shared" ref="R60:X60" si="76">R3/N3-1</f>
         <v>6.0498220640569311E-2</v>
       </c>
       <c r="S60" s="16">
-        <f>S3/O3-1</f>
+        <f t="shared" si="76"/>
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="T60" s="16">
-        <f>T3/P3-1</f>
+        <f t="shared" si="76"/>
         <v>6.6878980891719841E-2</v>
       </c>
       <c r="U60" s="16">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="76"/>
         <v>6.3122923588039948E-2</v>
       </c>
       <c r="V60" s="17">
-        <f>V3/R3-1</f>
+        <f t="shared" si="76"/>
         <v>0.11073825503355694</v>
       </c>
       <c r="W60" s="16">
-        <f>W3/S3-1</f>
+        <f t="shared" si="76"/>
         <v>-0.13580246913580252</v>
       </c>
       <c r="X60" s="16">
-        <f>X3/T3-1</f>
+        <f t="shared" si="76"/>
         <v>0.23880597014925375</v>
       </c>
     </row>
@@ -14280,23 +14289,23 @@
       <c r="R61" s="17"/>
       <c r="S61" s="16"/>
       <c r="T61" s="16">
-        <f t="shared" ref="T61:X62" si="76">T4/P4-1</f>
+        <f t="shared" ref="T61:X62" si="77">T4/P4-1</f>
         <v>34</v>
       </c>
       <c r="U61" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>13.583887585556388</v>
       </c>
       <c r="V61" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>5.015625</v>
       </c>
       <c r="W61" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.82329317269076308</v>
       </c>
       <c r="X61" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.51428571428571423</v>
       </c>
     </row>
@@ -14313,23 +14322,23 @@
         <v>0.42105263157894735</v>
       </c>
       <c r="T62" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="U62" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-9.7938144329897003E-2</v>
       </c>
       <c r="V62" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-7.407407407407407E-2</v>
       </c>
       <c r="W62" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.2592592592592593</v>
       </c>
       <c r="X62" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>1.1600000000000001</v>
       </c>
     </row>

--- a/ZG.xlsx
+++ b/ZG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D6E632-B418-DB42-A8BE-E5A6C4E3FC9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03ACCB4-827C-A744-97E9-0B7CBB84A997}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21140" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28260" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>Q117</t>
   </si>
@@ -379,9 +379,6 @@
     <t>31/12/2019</t>
   </si>
   <si>
-    <t>340-357</t>
-  </si>
-  <si>
     <t>IMT</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>https://www.trulia.com/</t>
-  </si>
-  <si>
-    <t>Brands</t>
   </si>
   <si>
     <t>https://hotpads.com/</t>
@@ -448,9 +442,6 @@
     <t>BADWILL</t>
   </si>
   <si>
-    <t>KPI changed</t>
-  </si>
-  <si>
     <t>Q220</t>
   </si>
   <si>
@@ -458,6 +449,36 @@
   </si>
   <si>
     <t>Q420</t>
+  </si>
+  <si>
+    <t>SEGMENTS</t>
+  </si>
+  <si>
+    <t>Aquired</t>
+  </si>
+  <si>
+    <t>Internet, media and technology</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Home loans</t>
+  </si>
+  <si>
+    <t>Buy and sell real estate (premier agent)</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -467,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,6 +560,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -579,7 +608,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -717,15 +746,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,9 +758,6 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -751,6 +768,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -776,14 +794,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -800,8 +818,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5689600" y="1333500"/>
-          <a:ext cx="0" cy="10045700"/>
+          <a:off x="6474883" y="1367367"/>
+          <a:ext cx="0" cy="10807700"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -832,14 +850,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>229306</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>313972</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>229306</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>313972</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -856,7 +874,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20697473" y="183444"/>
+          <a:off x="21607639" y="183444"/>
           <a:ext cx="0" cy="10484556"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1147,13 +1165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DR71"/>
+  <dimension ref="A1:FA71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1175,16 +1193,16 @@
         <v>65</v>
       </c>
       <c r="C2" s="24">
-        <v>136.53</v>
-      </c>
-      <c r="D2" s="72">
-        <v>44200</v>
+        <v>171.71</v>
+      </c>
+      <c r="D2" s="68">
+        <v>44237</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="26">
-        <v>-0.01</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="47"/>
     </row>
@@ -1196,11 +1214,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="27">
-        <f>Reports!X29</f>
-        <v>242.63200000000001</v>
+        <f>Reports!Y29</f>
+        <v>251.499</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>30</v>
@@ -1214,7 +1232,7 @@
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1222,7 +1240,7 @@
       </c>
       <c r="C4" s="29">
         <f>C2*C3</f>
-        <v>33126.54696</v>
+        <v>43184.89329</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>31</v>
@@ -1244,18 +1262,18 @@
         <v>26</v>
       </c>
       <c r="C5" s="27">
-        <f>Reports!X40</f>
-        <v>1712</v>
+        <f>Reports!Y40</f>
+        <v>1637</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="30">
-        <f>NPV(F4,G34:DR34)</f>
-        <v>39820.062339191674</v>
+        <f>NPV(F4,H34:DR34)</f>
+        <v>86893.197995643292</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>107</v>
@@ -1271,19 +1289,19 @@
       </c>
       <c r="C6" s="29">
         <f>C4-C5</f>
-        <v>31414.54696</v>
+        <v>41547.89329</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="32">
         <f>F5+C5</f>
-        <v>41532.062339191674</v>
+        <v>88530.197995643292</v>
       </c>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1291,22 +1309,22 @@
       </c>
       <c r="C7" s="33">
         <f>C6/C3</f>
-        <v>129.47404695176235</v>
+        <v>165.20102779732724</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="35">
         <f>F6/C3</f>
-        <v>171.17306183517292</v>
+        <v>352.01013918800192</v>
       </c>
       <c r="G7" s="36">
         <f>F7/C2-1</f>
-        <v>0.25373955786400737</v>
+        <v>1.050027017576157</v>
       </c>
     </row>
     <row r="8" spans="1:122" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="62" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1325,7 +1343,7 @@
         <v>2018</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:U9" si="0">E9+1</f>
+        <f t="shared" ref="F9:V9" si="0">E9+1</f>
         <v>2019</v>
       </c>
       <c r="G9" s="2">
@@ -1388,7 +1406,10 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1492,7 +1513,7 @@
     </row>
     <row r="10" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1506,26 +1527,29 @@
         <v>1277</v>
       </c>
       <c r="G10" s="3">
-        <f>F10*1.1</f>
-        <v>1404.7</v>
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>1449.838</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:K10" si="1">G10*1.1</f>
-        <v>1545.17</v>
+        <f>G10*1.05</f>
+        <v>1522.3299</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
-        <v>1699.6870000000001</v>
+        <f t="shared" ref="I10:L10" si="1">H10*1.05</f>
+        <v>1598.4463949999999</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>1869.6557000000003</v>
+        <v>1678.36871475</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>2056.6212700000005</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>1762.2871504875</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>1850.401508011875</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1653,26 +1677,29 @@
         <v>1365</v>
       </c>
       <c r="G11" s="3">
-        <f>F11*1.5</f>
-        <v>2047.5</v>
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>1715.145</v>
       </c>
       <c r="H11" s="3">
         <f>G11*1.4</f>
-        <v>2866.5</v>
+        <v>2401.203</v>
       </c>
       <c r="I11" s="3">
-        <f>H11*1.35</f>
-        <v>3869.7750000000001</v>
+        <f t="shared" ref="I11:L11" si="2">H11*1.4</f>
+        <v>3361.6841999999997</v>
       </c>
       <c r="J11" s="3">
-        <f>I11*1.3</f>
-        <v>5030.7075000000004</v>
+        <f t="shared" si="2"/>
+        <v>4706.3578799999996</v>
       </c>
       <c r="K11" s="3">
-        <f>J11*1.25</f>
-        <v>6288.3843750000005</v>
-      </c>
-      <c r="L11" s="2"/>
+        <f t="shared" si="2"/>
+        <v>6588.9010319999988</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="2"/>
+        <v>9224.4614447999975</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1809,26 +1836,29 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <f>F12*1.2</f>
-        <v>120</v>
+        <f>SUM(Reports!V5:Y5)</f>
+        <v>173.96899999999999</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:K12" si="2">G12*1.2</f>
-        <v>144</v>
+        <f>G12*1.25</f>
+        <v>217.46125000000001</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
-        <v>172.79999999999998</v>
+        <f t="shared" ref="I12:L12" si="3">H12*1.25</f>
+        <v>271.82656250000002</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>207.35999999999999</v>
+        <f t="shared" si="3"/>
+        <v>339.783203125</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
-        <v>248.83199999999997</v>
-      </c>
-      <c r="L12" s="2"/>
+        <f t="shared" si="3"/>
+        <v>424.72900390625</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="3"/>
+        <v>530.9112548828125</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3132,8 +3162,8 @@
       <c r="DQ21" s="48"/>
       <c r="DR21" s="48"/>
     </row>
-    <row r="22" spans="1:122" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E22" s="58">
+    <row r="22" spans="1:122" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="2">
         <v>1307</v>
       </c>
     </row>
@@ -3161,67 +3191,70 @@
         <f>SUM(F10:F12)</f>
         <v>2742</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="37">
         <f>SUM(G10:G12)</f>
-        <v>3572.2</v>
+        <v>3338.9520000000002</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" ref="H23:J23" si="3">SUM(H10:H12)</f>
-        <v>4555.67</v>
+        <f t="shared" ref="H23:L23" si="4">SUM(H10:H12)</f>
+        <v>4140.9941500000004</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="3"/>
-        <v>5742.2620000000006</v>
+        <f t="shared" si="4"/>
+        <v>5231.9571575</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="3"/>
-        <v>7107.7232000000004</v>
+        <f t="shared" si="4"/>
+        <v>6724.509797875</v>
       </c>
       <c r="K23" s="10">
-        <f>SUM(K10:K12)</f>
-        <v>8593.8376450000014</v>
+        <f t="shared" si="4"/>
+        <v>8775.9171863937481</v>
       </c>
       <c r="L23" s="10">
-        <f>K23*1.1</f>
-        <v>9453.2214095000018</v>
+        <f t="shared" si="4"/>
+        <v>11605.774207694685</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" ref="M23:U23" si="4">L23*1.1</f>
-        <v>10398.543550450002</v>
+        <f t="shared" ref="M23:V23" si="5">L23*1.1</f>
+        <v>12766.351628464156</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="4"/>
-        <v>11438.397905495003</v>
+        <f t="shared" si="5"/>
+        <v>14042.986791310572</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="4"/>
-        <v>12582.237696044505</v>
+        <f t="shared" si="5"/>
+        <v>15447.28547044163</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="4"/>
-        <v>13840.461465648958</v>
+        <f t="shared" si="5"/>
+        <v>16992.014017485795</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="4"/>
-        <v>15224.507612213854</v>
+        <f t="shared" si="5"/>
+        <v>18691.215419234377</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" si="4"/>
-        <v>16746.958373435242</v>
+        <f t="shared" si="5"/>
+        <v>20560.336961157816</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" si="4"/>
-        <v>18421.654210778768</v>
+        <f t="shared" si="5"/>
+        <v>22616.370657273601</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="4"/>
-        <v>20263.819631856648</v>
+        <f t="shared" si="5"/>
+        <v>24878.007723000963</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" si="4"/>
-        <v>22290.201595042316</v>
-      </c>
-      <c r="V23" s="10"/>
+        <f t="shared" si="5"/>
+        <v>27365.808495301062</v>
+      </c>
+      <c r="V23" s="10">
+        <f t="shared" si="5"/>
+        <v>30102.389344831172</v>
+      </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -3347,67 +3380,70 @@
         <f>SUM(Reports!R17:U17)</f>
         <v>1429.348</v>
       </c>
-      <c r="G24" s="6">
-        <f>G23-G25</f>
-        <v>1862.1141231218087</v>
+      <c r="G24" s="3">
+        <f>SUM(Reports!V17:Y17)</f>
+        <v>1756.4279999999999</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" ref="H24" si="5">H23-H25</f>
-        <v>2374.7767334646242</v>
+        <f t="shared" ref="H24" si="6">H23-H25</f>
+        <v>2178.3356193488853</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" ref="I24:Q24" si="6">I23-I25</f>
-        <v>2993.3226495900803</v>
+        <f t="shared" ref="I24:Q24" si="7">I23-I25</f>
+        <v>2752.2276589281337</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="6"/>
-        <v>3705.1093874812545</v>
+        <f t="shared" si="7"/>
+        <v>3537.3725933352712</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="6"/>
-        <v>4479.790171482663</v>
+        <f t="shared" si="7"/>
+        <v>4616.4984318023135</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="6"/>
-        <v>4927.7691886309294</v>
+        <f t="shared" si="7"/>
+        <v>6105.1212416568915</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="6"/>
-        <v>5420.5461074940222</v>
+        <f t="shared" si="7"/>
+        <v>6715.6333658225813</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="6"/>
-        <v>5962.600718243425</v>
+        <f t="shared" si="7"/>
+        <v>7387.1967024048399</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="6"/>
-        <v>6558.860790067768</v>
+        <f t="shared" si="7"/>
+        <v>8125.9163726453244</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="6"/>
-        <v>7214.7468690745454</v>
+        <f t="shared" si="7"/>
+        <v>8938.5080099098595</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="6"/>
-        <v>7936.2215559820006</v>
+        <f t="shared" si="7"/>
+        <v>9832.3588109008451</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ref="R24:U24" si="7">R23-R25</f>
-        <v>8729.8437115802026</v>
+        <f t="shared" ref="R24:U24" si="8">R23-R25</f>
+        <v>10815.594691990931</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="7"/>
-        <v>9602.8280827382241</v>
+        <f t="shared" si="8"/>
+        <v>11897.154161190025</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" si="7"/>
-        <v>10563.110891012049</v>
+        <f t="shared" si="8"/>
+        <v>13086.869577309029</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="7"/>
-        <v>11619.421980113257</v>
-      </c>
-      <c r="V24" s="6"/>
+        <f t="shared" si="8"/>
+        <v>14395.556535039934</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" ref="V24" si="9">V23-V25</f>
+        <v>15835.112188543928</v>
+      </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -3533,67 +3569,70 @@
         <f>F23-F24</f>
         <v>1312.652</v>
       </c>
-      <c r="G25" s="6">
-        <f>G23*F44</f>
-        <v>1710.0858768781911</v>
+      <c r="G25" s="39">
+        <f>G23-G24</f>
+        <v>1582.5240000000003</v>
       </c>
       <c r="H25" s="6">
         <f>H23*G44</f>
-        <v>2180.8932665353759</v>
+        <v>1962.6585306511149</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25:U25" si="8">I23*H44</f>
-        <v>2748.9393504099203</v>
+        <f t="shared" ref="I25:V25" si="10">I23*H44</f>
+        <v>2479.7294985718663</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="8"/>
-        <v>3402.6138125187458</v>
+        <f t="shared" si="10"/>
+        <v>3187.1372045397288</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="8"/>
-        <v>4114.0474735173384</v>
+        <f t="shared" si="10"/>
+        <v>4159.4187545914347</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="8"/>
-        <v>4525.4522208690723</v>
+        <f t="shared" si="10"/>
+        <v>5500.6529660377937</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="8"/>
-        <v>4977.9974429559797</v>
+        <f t="shared" si="10"/>
+        <v>6050.7182626415743</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="8"/>
-        <v>5475.7971872515782</v>
+        <f t="shared" si="10"/>
+        <v>6655.7900889057319</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="8"/>
-        <v>6023.3769059767374</v>
+        <f t="shared" si="10"/>
+        <v>7321.3690977963051</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="8"/>
-        <v>6625.7145965744121</v>
+        <f t="shared" si="10"/>
+        <v>8053.5060075759366</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="8"/>
-        <v>7288.2860562318538</v>
+        <f t="shared" si="10"/>
+        <v>8858.8566083335318</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="8"/>
-        <v>8017.1146618550392</v>
+        <f t="shared" si="10"/>
+        <v>9744.7422691668853</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="8"/>
-        <v>8818.8261280405441</v>
+        <f t="shared" si="10"/>
+        <v>10719.216496083576</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="8"/>
-        <v>9700.7087408445987</v>
+        <f t="shared" si="10"/>
+        <v>11791.138145691933</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="8"/>
-        <v>10670.779614929059</v>
-      </c>
-      <c r="V25" s="6"/>
+        <f t="shared" si="10"/>
+        <v>12970.251960261128</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="10"/>
+        <v>14267.277156287244</v>
+      </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -3719,67 +3758,70 @@
         <f>SUM(Reports!R19:U19)</f>
         <v>476.77</v>
       </c>
-      <c r="G26" s="6">
-        <f>F26*1.15</f>
-        <v>548.28549999999996</v>
+      <c r="G26" s="3">
+        <f>SUM(Reports!V19:Y19)</f>
+        <v>518</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" ref="H26:K26" si="9">G26*1.15</f>
-        <v>630.52832499999988</v>
+        <f>G26*1.1</f>
+        <v>569.80000000000007</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="9"/>
-        <v>725.1075737499998</v>
+        <f>H26*1.15</f>
+        <v>655.27</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="9"/>
-        <v>833.87370981249967</v>
+        <f t="shared" ref="J26:L26" si="11">I26*1.15</f>
+        <v>753.56049999999993</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="9"/>
-        <v>958.9547662843745</v>
+        <f t="shared" si="11"/>
+        <v>866.59457499999985</v>
       </c>
       <c r="L26" s="6">
-        <f>K26*1.1</f>
-        <v>1054.8502429128121</v>
+        <f t="shared" si="11"/>
+        <v>996.58376124999972</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" ref="M26:U26" si="10">L26*1.1</f>
-        <v>1160.3352672040933</v>
+        <f t="shared" ref="M26:V26" si="12">L26*1.1</f>
+        <v>1096.2421373749999</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="10"/>
-        <v>1276.3687939245026</v>
+        <f t="shared" si="12"/>
+        <v>1205.8663511124998</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="10"/>
-        <v>1404.0056733169529</v>
+        <f t="shared" si="12"/>
+        <v>1326.45298622375</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="10"/>
-        <v>1544.4062406486482</v>
+        <f t="shared" si="12"/>
+        <v>1459.0982848461251</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="10"/>
-        <v>1698.8468647135132</v>
+        <f t="shared" si="12"/>
+        <v>1605.0081133307378</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="10"/>
-        <v>1868.7315511848647</v>
+        <f t="shared" si="12"/>
+        <v>1765.5089246638117</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="10"/>
-        <v>2055.6047063033511</v>
+        <f t="shared" si="12"/>
+        <v>1942.0598171301931</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="10"/>
-        <v>2261.1651769336863</v>
+        <f t="shared" si="12"/>
+        <v>2136.2657988432125</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="10"/>
-        <v>2487.281694627055</v>
-      </c>
-      <c r="V26" s="6"/>
+        <f t="shared" si="12"/>
+        <v>2349.8923787275339</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" si="12"/>
+        <v>2584.8816166002875</v>
+      </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -3905,67 +3947,70 @@
         <f>SUM(Reports!R20:U20)</f>
         <v>713.58699999999999</v>
       </c>
-      <c r="G27" s="6">
-        <f>F27*1.2</f>
-        <v>856.30439999999999</v>
+      <c r="G27" s="3">
+        <f>SUM(Reports!V20:Y20)</f>
+        <v>674</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:K27" si="11">G27*1.2</f>
-        <v>1027.56528</v>
+        <f>G27*0.95</f>
+        <v>640.29999999999995</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="11"/>
-        <v>1233.078336</v>
+        <f>H27*1.1</f>
+        <v>704.33</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="11"/>
-        <v>1479.6940032</v>
+        <f t="shared" ref="J27:L27" si="13">I27*1.1</f>
+        <v>774.76300000000015</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="11"/>
-        <v>1775.63280384</v>
+        <f t="shared" si="13"/>
+        <v>852.23930000000018</v>
       </c>
       <c r="L27" s="6">
-        <f t="shared" ref="L27" si="12">K27*1.05</f>
-        <v>1864.4144440320001</v>
+        <f t="shared" si="13"/>
+        <v>937.46323000000029</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" ref="M27" si="13">L27*1.05</f>
-        <v>1957.6351662336001</v>
+        <f t="shared" ref="M27" si="14">L27*1.05</f>
+        <v>984.33639150000033</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" ref="N27" si="14">M27*1.05</f>
-        <v>2055.5169245452803</v>
+        <f t="shared" ref="N27" si="15">M27*1.05</f>
+        <v>1033.5532110750005</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" ref="O27" si="15">N27*1.05</f>
-        <v>2158.2927707725444</v>
+        <f t="shared" ref="O27" si="16">N27*1.05</f>
+        <v>1085.2308716287505</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27" si="16">O27*1.05</f>
-        <v>2266.2074093111719</v>
+        <f t="shared" ref="P27" si="17">O27*1.05</f>
+        <v>1139.492415210188</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" ref="Q27" si="17">P27*1.05</f>
-        <v>2379.5177797767305</v>
+        <f t="shared" ref="Q27" si="18">P27*1.05</f>
+        <v>1196.4670359706975</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" ref="R27" si="18">Q27*1.05</f>
-        <v>2498.4936687655672</v>
+        <f t="shared" ref="R27" si="19">Q27*1.05</f>
+        <v>1256.2903877692324</v>
       </c>
       <c r="S27" s="6">
-        <f t="shared" ref="S27" si="19">R27*1.05</f>
-        <v>2623.4183522038456</v>
+        <f t="shared" ref="S27" si="20">R27*1.05</f>
+        <v>1319.104907157694</v>
       </c>
       <c r="T27" s="6">
-        <f t="shared" ref="T27" si="20">S27*1.05</f>
-        <v>2754.5892698140378</v>
+        <f t="shared" ref="T27" si="21">S27*1.05</f>
+        <v>1385.0601525155787</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" ref="U27" si="21">T27*1.05</f>
-        <v>2892.3187333047399</v>
-      </c>
-      <c r="V27" s="6"/>
+        <f t="shared" ref="U27:V27" si="22">T27*1.05</f>
+        <v>1454.3131601413577</v>
+      </c>
+      <c r="V27" s="6">
+        <f t="shared" si="22"/>
+        <v>1527.0288181484257</v>
+      </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -4091,67 +4136,70 @@
         <f>SUM(Reports!R21:U21)</f>
         <v>366.12599999999998</v>
       </c>
-      <c r="G28" s="6">
-        <f>F28*1.1</f>
-        <v>402.73860000000002</v>
+      <c r="G28" s="3">
+        <f>SUM(Reports!V21:Y21)</f>
+        <v>434</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:K28" si="22">G28*1.1</f>
-        <v>443.01246000000003</v>
+        <f>G28*1.2</f>
+        <v>520.79999999999995</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="22"/>
-        <v>487.31370600000008</v>
+        <f t="shared" ref="I28:L28" si="23">H28*1.2</f>
+        <v>624.95999999999992</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="22"/>
-        <v>536.04507660000013</v>
+        <f t="shared" si="23"/>
+        <v>749.95199999999988</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" si="22"/>
-        <v>589.64958426000021</v>
+        <f t="shared" si="23"/>
+        <v>899.94239999999979</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" ref="L28" si="23">K28*0.98</f>
-        <v>577.85659257480017</v>
+        <f t="shared" si="23"/>
+        <v>1079.9308799999997</v>
       </c>
       <c r="M28" s="6">
         <f t="shared" ref="M28" si="24">L28*0.98</f>
-        <v>566.29946072330415</v>
+        <v>1058.3322623999995</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" ref="N28" si="25">M28*0.98</f>
-        <v>554.97347150883809</v>
+        <v>1037.1656171519994</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" ref="O28" si="26">N28*0.98</f>
-        <v>543.87400207866131</v>
+        <v>1016.4223048089594</v>
       </c>
       <c r="P28" s="6">
         <f t="shared" ref="P28" si="27">O28*0.98</f>
-        <v>532.99652203708808</v>
+        <v>996.09385871278027</v>
       </c>
       <c r="Q28" s="6">
         <f t="shared" ref="Q28" si="28">P28*0.98</f>
-        <v>522.33659159634635</v>
+        <v>976.17198153852462</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" ref="R28" si="29">Q28*0.98</f>
-        <v>511.88985976441944</v>
+        <v>956.64854190775407</v>
       </c>
       <c r="S28" s="6">
         <f t="shared" ref="S28" si="30">R28*0.98</f>
-        <v>501.65206256913103</v>
+        <v>937.51557106959899</v>
       </c>
       <c r="T28" s="6">
         <f t="shared" ref="T28" si="31">S28*0.98</f>
-        <v>491.61902131774838</v>
+        <v>918.76525964820701</v>
       </c>
       <c r="U28" s="6">
-        <f t="shared" ref="U28" si="32">T28*0.98</f>
-        <v>481.7866408913934</v>
-      </c>
-      <c r="V28" s="6"/>
+        <f t="shared" ref="U28:V28" si="32">T28*0.98</f>
+        <v>900.3899544552429</v>
+      </c>
+      <c r="V28" s="6">
+        <f t="shared" si="32"/>
+        <v>882.38215536613802</v>
+      </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -4277,67 +4325,70 @@
         <f t="shared" si="33"/>
         <v>1556.4829999999999</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="33"/>
-        <v>1807.3285000000001</v>
+      <c r="G29" s="39">
+        <f t="shared" ref="G29" si="34">SUM(G26:G28)</f>
+        <v>1626</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="33"/>
-        <v>2101.1060649999999</v>
+        <v>1730.8999999999999</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="I29:Q29" si="34">SUM(I26:I28)</f>
-        <v>2445.49961575</v>
+        <f t="shared" ref="I29:Q29" si="35">SUM(I26:I28)</f>
+        <v>1984.56</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="34"/>
-        <v>2849.6127896124999</v>
+        <f t="shared" si="35"/>
+        <v>2278.2754999999997</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="34"/>
-        <v>3324.2371543843747</v>
+        <f t="shared" si="35"/>
+        <v>2618.7762749999997</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="34"/>
-        <v>3497.1212795196125</v>
+        <f t="shared" si="35"/>
+        <v>3013.9778712499997</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="34"/>
-        <v>3684.2698941609974</v>
+        <f t="shared" si="35"/>
+        <v>3138.9107912749996</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="34"/>
-        <v>3886.8591899786206</v>
+        <f t="shared" si="35"/>
+        <v>3276.5851793395</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="34"/>
-        <v>4106.1724461681588</v>
+        <f t="shared" si="35"/>
+        <v>3428.1061626614596</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="34"/>
-        <v>4343.6101719969083</v>
+        <f t="shared" si="35"/>
+        <v>3594.6845587690932</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="34"/>
-        <v>4600.7012360865901</v>
+        <f t="shared" si="35"/>
+        <v>3777.64713083996</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:U29" si="35">SUM(R26:R28)</f>
-        <v>4879.1150797148512</v>
+        <f t="shared" ref="R29:U29" si="36">SUM(R26:R28)</f>
+        <v>3978.4478543407981</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="35"/>
-        <v>5180.6751210763277</v>
+        <f t="shared" si="36"/>
+        <v>4198.6802953574861</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" si="35"/>
-        <v>5507.3734680654725</v>
+        <f t="shared" si="36"/>
+        <v>4440.0912110069976</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="35"/>
-        <v>5861.3870688231882</v>
-      </c>
-      <c r="V29" s="6"/>
+        <f t="shared" si="36"/>
+        <v>4704.5954933241346</v>
+      </c>
+      <c r="V29" s="6">
+        <f t="shared" ref="V29" si="37">SUM(V26:V28)</f>
+        <v>4994.2925901148519</v>
+      </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -4463,67 +4514,70 @@
         <f>F25-F29</f>
         <v>-243.8309999999999</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" ref="G30:H30" si="36">G25-G29</f>
-        <v>-97.242623121808947</v>
+      <c r="G30" s="39">
+        <f>G25-G29</f>
+        <v>-43.475999999999658</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="36"/>
-        <v>79.787201535375971</v>
+        <f t="shared" ref="G30:H30" si="38">H25-H29</f>
+        <v>231.75853065111505</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" ref="I30:Q30" si="37">I25-I29</f>
-        <v>303.4397346599203</v>
+        <f t="shared" ref="I30:Q30" si="39">I25-I29</f>
+        <v>495.16949857186637</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="37"/>
-        <v>553.00102290624591</v>
+        <f t="shared" si="39"/>
+        <v>908.86170453972909</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" si="37"/>
-        <v>789.81031913296374</v>
+        <f t="shared" si="39"/>
+        <v>1540.6424795914349</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="37"/>
-        <v>1028.3309413494599</v>
+        <f t="shared" si="39"/>
+        <v>2486.675094787794</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="37"/>
-        <v>1293.7275487949823</v>
+        <f t="shared" si="39"/>
+        <v>2911.8074713665746</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="37"/>
-        <v>1588.9379972729575</v>
+        <f t="shared" si="39"/>
+        <v>3379.2049095662319</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="37"/>
-        <v>1917.2044598085786</v>
+        <f t="shared" si="39"/>
+        <v>3893.2629351348455</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="37"/>
-        <v>2282.1044245775038</v>
+        <f t="shared" si="39"/>
+        <v>4458.8214488068434</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="37"/>
-        <v>2687.5848201452636</v>
+        <f t="shared" si="39"/>
+        <v>5081.2094774935722</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" ref="R30:U30" si="38">R25-R29</f>
-        <v>3137.9995821401881</v>
+        <f t="shared" ref="R30:U30" si="40">R25-R29</f>
+        <v>5766.2944148260867</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="38"/>
-        <v>3638.1510069642163</v>
+        <f t="shared" si="40"/>
+        <v>6520.5362007260901</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="38"/>
-        <v>4193.3352727791262</v>
+        <f t="shared" si="40"/>
+        <v>7351.0469346849359</v>
       </c>
       <c r="U30" s="6">
-        <f t="shared" si="38"/>
-        <v>4809.3925461058707</v>
-      </c>
-      <c r="V30" s="6"/>
+        <f t="shared" si="40"/>
+        <v>8265.6564669369945</v>
+      </c>
+      <c r="V30" s="6">
+        <f t="shared" ref="V30" si="41">V25-V29</f>
+        <v>9272.9845661723921</v>
+      </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -4649,67 +4703,70 @@
         <f>SUM(Reports!R24:U24)</f>
         <v>-63.298000000000002</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" ref="G31:U31" si="39">F48*$F$3</f>
-        <v>17.38</v>
+      <c r="G31" s="3">
+        <f>SUM(Reports!V24:Y24)</f>
+        <v>-130</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="39"/>
-        <v>16.022335406929248</v>
+        <f t="shared" ref="G31:V31" si="42">G48*$F$3</f>
+        <v>32.74</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="39"/>
-        <v>17.651097534948438</v>
+        <f t="shared" si="42"/>
+        <v>37.236475021068955</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="39"/>
-        <v>23.109641682261209</v>
+        <f t="shared" si="42"/>
+        <v>46.287376572148858</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="39"/>
-        <v>32.903522980265834</v>
+        <f t="shared" si="42"/>
+        <v>62.524910951050792</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="39"/>
-        <v>46.889658296190738</v>
+        <f t="shared" si="42"/>
+        <v>89.778756590273048</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="39"/>
-        <v>65.168408490166797</v>
+        <f t="shared" si="42"/>
+        <v>133.57847206370019</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="39"/>
-        <v>88.269639764014315</v>
+        <f t="shared" si="42"/>
+        <v>185.35003310201486</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="39"/>
-        <v>116.78216959364283</v>
+        <f t="shared" si="42"/>
+        <v>245.94746712737506</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="39"/>
-        <v>151.3599422934806</v>
+        <f t="shared" si="42"/>
+        <v>316.31404396583281</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="39"/>
-        <v>192.72883653028734</v>
+        <f t="shared" si="42"/>
+        <v>397.49134734296831</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="39"/>
-        <v>241.69416869377173</v>
+        <f t="shared" si="42"/>
+        <v>490.62926136518945</v>
       </c>
       <c r="S31" s="6">
-        <f t="shared" si="39"/>
-        <v>299.14896245794904</v>
+        <f t="shared" si="42"/>
+        <v>596.99696386044116</v>
       </c>
       <c r="T31" s="6">
-        <f t="shared" si="39"/>
-        <v>366.08306193812581</v>
+        <f t="shared" si="42"/>
+        <v>717.99502765841225</v>
       </c>
       <c r="U31" s="6">
-        <f t="shared" si="39"/>
-        <v>443.59317362831916</v>
-      </c>
-      <c r="V31" s="6"/>
+        <f t="shared" si="42"/>
+        <v>855.16874101824919</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="42"/>
+        <v>1010.2227695534883</v>
+      </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -4835,67 +4892,70 @@
         <f>F30+F31</f>
         <v>-307.12899999999991</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32:H32" si="40">G30+G31</f>
-        <v>-79.862623121808952</v>
+      <c r="G32" s="39">
+        <f>G30+G31</f>
+        <v>-173.47599999999966</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="40"/>
-        <v>95.809536942305215</v>
+        <f t="shared" ref="G32:H32" si="43">H30+H31</f>
+        <v>264.49853065111506</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" ref="I32:Q32" si="41">I30+I31</f>
-        <v>321.09083219486877</v>
+        <f t="shared" ref="I32:Q32" si="44">I30+I31</f>
+        <v>532.40597359293531</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="41"/>
-        <v>576.11066458850712</v>
+        <f t="shared" si="44"/>
+        <v>955.14908111187799</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="41"/>
-        <v>822.71384211322959</v>
+        <f t="shared" si="44"/>
+        <v>1603.1673905424857</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="41"/>
-        <v>1075.2205996456505</v>
+        <f t="shared" si="44"/>
+        <v>2576.4538513780672</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="41"/>
-        <v>1358.8959572851491</v>
+        <f t="shared" si="44"/>
+        <v>3045.3859434302749</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="41"/>
-        <v>1677.2076370369718</v>
+        <f t="shared" si="44"/>
+        <v>3564.5549426682469</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="41"/>
-        <v>2033.9866294022213</v>
+        <f t="shared" si="44"/>
+        <v>4139.2104022622207</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="41"/>
-        <v>2433.4643668709846</v>
+        <f t="shared" si="44"/>
+        <v>4775.1354927726761</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="41"/>
-        <v>2880.3136566755511</v>
+        <f t="shared" si="44"/>
+        <v>5478.7008248365401</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" ref="R32:U32" si="42">R30+R31</f>
-        <v>3379.6937508339597</v>
+        <f t="shared" ref="R32:U32" si="45">R30+R31</f>
+        <v>6256.9236761912762</v>
       </c>
       <c r="S32" s="6">
-        <f t="shared" si="42"/>
-        <v>3937.2999694221653</v>
+        <f t="shared" si="45"/>
+        <v>7117.5331645865317</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" si="42"/>
-        <v>4559.418334717252</v>
+        <f t="shared" si="45"/>
+        <v>8069.0419623433481</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="42"/>
-        <v>5252.9857197341898</v>
-      </c>
-      <c r="V32" s="6"/>
+        <f t="shared" si="45"/>
+        <v>9120.825207955244</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" ref="V32" si="46">V30+V31</f>
+        <v>10283.20733572588</v>
+      </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -4997,7 +5057,7 @@
       <c r="DQ32" s="2"/>
       <c r="DR32" s="2"/>
     </row>
-    <row r="33" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
@@ -5021,67 +5081,70 @@
         <f>SUM(Reports!R26:U26)</f>
         <v>-3.5</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" ref="G33:Q33" si="43">G32*0.15</f>
-        <v>-11.979393468271342</v>
+      <c r="G33" s="3">
+        <f>SUM(Reports!V26:Y26)</f>
+        <v>-7</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="43"/>
-        <v>14.371430541345783</v>
+        <f t="shared" ref="G33:Q33" si="47">H32*0.15</f>
+        <v>39.674779597667261</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="43"/>
-        <v>48.163624829230315</v>
+        <f t="shared" si="47"/>
+        <v>79.860896038940297</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="43"/>
-        <v>86.416599688276065</v>
+        <f t="shared" si="47"/>
+        <v>143.2723621667817</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="43"/>
-        <v>123.40707631698443</v>
+        <f t="shared" si="47"/>
+        <v>240.47510858137284</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" si="43"/>
-        <v>161.28308994684758</v>
+        <f t="shared" si="47"/>
+        <v>386.46807770671006</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="43"/>
-        <v>203.83439359277236</v>
+        <f t="shared" si="47"/>
+        <v>456.80789151454121</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="43"/>
-        <v>251.58114555554576</v>
+        <f t="shared" si="47"/>
+        <v>534.68324140023697</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="43"/>
-        <v>305.09799441033317</v>
+        <f t="shared" si="47"/>
+        <v>620.88156033933308</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="43"/>
-        <v>365.0196550306477</v>
+        <f t="shared" si="47"/>
+        <v>716.27032391590137</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="43"/>
-        <v>432.04704850133265</v>
+        <f t="shared" si="47"/>
+        <v>821.80512372548094</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" ref="R33:U33" si="44">R32*0.15</f>
-        <v>506.95406262509391</v>
+        <f t="shared" ref="R33:U33" si="48">R32*0.15</f>
+        <v>938.53855142869133</v>
       </c>
       <c r="S33" s="6">
-        <f t="shared" si="44"/>
-        <v>590.5949954133248</v>
+        <f t="shared" si="48"/>
+        <v>1067.6299746879797</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" si="44"/>
-        <v>683.91275020758781</v>
+        <f t="shared" si="48"/>
+        <v>1210.3562943515021</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="44"/>
-        <v>787.94785796012843</v>
-      </c>
-      <c r="V33" s="6"/>
+        <f t="shared" si="48"/>
+        <v>1368.1237811932865</v>
+      </c>
+      <c r="V33" s="6">
+        <f t="shared" ref="V33" si="49">V32*0.15</f>
+        <v>1542.4811003588818</v>
+      </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -5183,7 +5246,7 @@
       <c r="DQ33" s="2"/>
       <c r="DR33" s="2"/>
     </row>
-    <row r="34" spans="1:122" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:157" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
@@ -5200,479 +5263,619 @@
         <v>-94.419999999999803</v>
       </c>
       <c r="E34" s="37">
-        <f t="shared" ref="E34:H34" si="45">E32-E33</f>
+        <f t="shared" ref="E34:H34" si="50">E32-E33</f>
         <v>-119.88499999999996</v>
       </c>
       <c r="F34" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>-303.62899999999991</v>
       </c>
       <c r="G34" s="37">
         <f>G32-G33</f>
-        <v>-67.883229653537612</v>
+        <v>-166.47599999999966</v>
       </c>
       <c r="H34" s="37">
-        <f t="shared" si="45"/>
-        <v>81.438106400959427</v>
+        <f t="shared" si="50"/>
+        <v>224.82375105344781</v>
       </c>
       <c r="I34" s="37">
-        <f t="shared" ref="I34:Q34" si="46">I32-I33</f>
-        <v>272.92720736563842</v>
+        <f t="shared" ref="I34:Q34" si="51">I32-I33</f>
+        <v>452.54507755399504</v>
       </c>
       <c r="J34" s="37">
-        <f t="shared" si="46"/>
-        <v>489.69406490023107</v>
+        <f t="shared" si="51"/>
+        <v>811.87671894509629</v>
       </c>
       <c r="K34" s="37">
-        <f t="shared" si="46"/>
-        <v>699.30676579624514</v>
+        <f t="shared" si="51"/>
+        <v>1362.6922819611129</v>
       </c>
       <c r="L34" s="37">
-        <f t="shared" si="46"/>
-        <v>913.93750969880296</v>
+        <f t="shared" si="51"/>
+        <v>2189.985773671357</v>
       </c>
       <c r="M34" s="37">
-        <f t="shared" si="46"/>
-        <v>1155.0615636923767</v>
+        <f t="shared" si="51"/>
+        <v>2588.5780519157338</v>
       </c>
       <c r="N34" s="37">
-        <f t="shared" si="46"/>
-        <v>1425.626491481426</v>
+        <f t="shared" si="51"/>
+        <v>3029.8717012680099</v>
       </c>
       <c r="O34" s="37">
-        <f t="shared" si="46"/>
-        <v>1728.888634991888</v>
+        <f t="shared" si="51"/>
+        <v>3518.3288419228875</v>
       </c>
       <c r="P34" s="37">
-        <f t="shared" si="46"/>
-        <v>2068.4447118403368</v>
+        <f t="shared" si="51"/>
+        <v>4058.8651688567747</v>
       </c>
       <c r="Q34" s="37">
-        <f t="shared" si="46"/>
-        <v>2448.2666081742186</v>
+        <f t="shared" si="51"/>
+        <v>4656.8957011110588</v>
       </c>
       <c r="R34" s="37">
-        <f t="shared" ref="R34:U34" si="47">R32-R33</f>
-        <v>2872.739688208866</v>
+        <f t="shared" ref="R34:U34" si="52">R32-R33</f>
+        <v>5318.3851247625844</v>
       </c>
       <c r="S34" s="37">
-        <f t="shared" si="47"/>
-        <v>3346.7049740088405</v>
+        <f t="shared" si="52"/>
+        <v>6049.9031898985522</v>
       </c>
       <c r="T34" s="37">
-        <f t="shared" si="47"/>
-        <v>3875.505584509664</v>
+        <f t="shared" si="52"/>
+        <v>6858.6856679918455</v>
       </c>
       <c r="U34" s="37">
-        <f t="shared" si="47"/>
-        <v>4465.0378617740616</v>
+        <f t="shared" si="52"/>
+        <v>7752.7014267619579</v>
       </c>
       <c r="V34" s="37">
-        <f>U34*($F$2+1)</f>
-        <v>4420.3874831563207</v>
+        <f t="shared" ref="V34" si="53">V32-V33</f>
+        <v>8740.7262353669976</v>
       </c>
       <c r="W34" s="37">
         <f>V34*($F$2+1)</f>
-        <v>4376.1836083247572</v>
+        <v>8697.0226041901624</v>
       </c>
       <c r="X34" s="37">
-        <f t="shared" ref="X34:CI34" si="48">W34*($F$2+1)</f>
-        <v>4332.4217722415096</v>
+        <f t="shared" ref="X34:CI34" si="54">W34*($F$2+1)</f>
+        <v>8653.5374911692106</v>
       </c>
       <c r="Y34" s="37">
-        <f t="shared" si="48"/>
-        <v>4289.097554519095</v>
+        <f t="shared" si="54"/>
+        <v>8610.269803713365</v>
       </c>
       <c r="Z34" s="37">
-        <f t="shared" si="48"/>
-        <v>4246.2065789739036</v>
+        <f t="shared" si="54"/>
+        <v>8567.2184546947974</v>
       </c>
       <c r="AA34" s="37">
-        <f t="shared" si="48"/>
-        <v>4203.7445131841641</v>
+        <f t="shared" si="54"/>
+        <v>8524.3823624213237</v>
       </c>
       <c r="AB34" s="37">
-        <f t="shared" si="48"/>
-        <v>4161.707068052322</v>
+        <f t="shared" si="54"/>
+        <v>8481.7604506092175</v>
       </c>
       <c r="AC34" s="37">
-        <f t="shared" si="48"/>
-        <v>4120.0899973717987</v>
+        <f t="shared" si="54"/>
+        <v>8439.3516483561707</v>
       </c>
       <c r="AD34" s="37">
-        <f t="shared" si="48"/>
-        <v>4078.8890973980806</v>
+        <f t="shared" si="54"/>
+        <v>8397.1548901143906</v>
       </c>
       <c r="AE34" s="37">
-        <f t="shared" si="48"/>
-        <v>4038.1002064240997</v>
+        <f t="shared" si="54"/>
+        <v>8355.169115663819</v>
       </c>
       <c r="AF34" s="37">
-        <f t="shared" si="48"/>
-        <v>3997.7192043598588</v>
+        <f t="shared" si="54"/>
+        <v>8313.3932700855003</v>
       </c>
       <c r="AG34" s="37">
-        <f t="shared" si="48"/>
-        <v>3957.7420123162601</v>
+        <f t="shared" si="54"/>
+        <v>8271.8263037350735</v>
       </c>
       <c r="AH34" s="37">
-        <f t="shared" si="48"/>
-        <v>3918.1645921930976</v>
+        <f t="shared" si="54"/>
+        <v>8230.4671722163985</v>
       </c>
       <c r="AI34" s="37">
-        <f t="shared" si="48"/>
-        <v>3878.9829462711668</v>
+        <f t="shared" si="54"/>
+        <v>8189.3148363553164</v>
       </c>
       <c r="AJ34" s="37">
-        <f t="shared" si="48"/>
-        <v>3840.1931168084552</v>
+        <f t="shared" si="54"/>
+        <v>8148.3682621735397</v>
       </c>
       <c r="AK34" s="37">
-        <f t="shared" si="48"/>
-        <v>3801.7911856403707</v>
+        <f t="shared" si="54"/>
+        <v>8107.6264208626717</v>
       </c>
       <c r="AL34" s="37">
-        <f t="shared" si="48"/>
-        <v>3763.7732737839669</v>
+        <f t="shared" si="54"/>
+        <v>8067.0882887583584</v>
       </c>
       <c r="AM34" s="37">
-        <f t="shared" si="48"/>
-        <v>3726.1355410461274</v>
+        <f t="shared" si="54"/>
+        <v>8026.7528473145667</v>
       </c>
       <c r="AN34" s="37">
-        <f t="shared" si="48"/>
-        <v>3688.874185635666</v>
+        <f t="shared" si="54"/>
+        <v>7986.6190830779942</v>
       </c>
       <c r="AO34" s="37">
-        <f t="shared" si="48"/>
-        <v>3651.9854437793092</v>
+        <f t="shared" si="54"/>
+        <v>7946.685987662604</v>
       </c>
       <c r="AP34" s="37">
-        <f t="shared" si="48"/>
-        <v>3615.4655893415161</v>
+        <f t="shared" si="54"/>
+        <v>7906.9525577242912</v>
       </c>
       <c r="AQ34" s="37">
-        <f t="shared" si="48"/>
-        <v>3579.310933448101</v>
+        <f t="shared" si="54"/>
+        <v>7867.4177949356699</v>
       </c>
       <c r="AR34" s="37">
-        <f t="shared" si="48"/>
-        <v>3543.51782411362</v>
+        <f t="shared" si="54"/>
+        <v>7828.0807059609915</v>
       </c>
       <c r="AS34" s="37">
-        <f t="shared" si="48"/>
-        <v>3508.0826458724837</v>
+        <f t="shared" si="54"/>
+        <v>7788.9403024311869</v>
       </c>
       <c r="AT34" s="37">
-        <f t="shared" si="48"/>
-        <v>3473.0018194137588</v>
+        <f t="shared" si="54"/>
+        <v>7749.9956009190309</v>
       </c>
       <c r="AU34" s="37">
-        <f t="shared" si="48"/>
-        <v>3438.271801219621</v>
+        <f t="shared" si="54"/>
+        <v>7711.2456229144354</v>
       </c>
       <c r="AV34" s="37">
-        <f t="shared" si="48"/>
-        <v>3403.8890832074248</v>
+        <f t="shared" si="54"/>
+        <v>7672.6893947998633</v>
       </c>
       <c r="AW34" s="37">
-        <f t="shared" si="48"/>
-        <v>3369.8501923753506</v>
+        <f t="shared" si="54"/>
+        <v>7634.3259478258642</v>
       </c>
       <c r="AX34" s="37">
-        <f t="shared" si="48"/>
-        <v>3336.151690451597</v>
+        <f t="shared" si="54"/>
+        <v>7596.1543180867347</v>
       </c>
       <c r="AY34" s="37">
-        <f t="shared" si="48"/>
-        <v>3302.7901735470809</v>
+        <f t="shared" si="54"/>
+        <v>7558.1735464963012</v>
       </c>
       <c r="AZ34" s="37">
-        <f t="shared" si="48"/>
-        <v>3269.7622718116099</v>
+        <f t="shared" si="54"/>
+        <v>7520.38267876382</v>
       </c>
       <c r="BA34" s="37">
-        <f t="shared" si="48"/>
-        <v>3237.0646490934937</v>
+        <f t="shared" si="54"/>
+        <v>7482.7807653700011</v>
       </c>
       <c r="BB34" s="37">
-        <f t="shared" si="48"/>
-        <v>3204.6940026025586</v>
+        <f t="shared" si="54"/>
+        <v>7445.3668615431507</v>
       </c>
       <c r="BC34" s="37">
-        <f t="shared" si="48"/>
-        <v>3172.6470625765328</v>
+        <f t="shared" si="54"/>
+        <v>7408.1400272354349</v>
       </c>
       <c r="BD34" s="37">
-        <f t="shared" si="48"/>
-        <v>3140.9205919507676</v>
+        <f t="shared" si="54"/>
+        <v>7371.0993270992576</v>
       </c>
       <c r="BE34" s="37">
-        <f t="shared" si="48"/>
-        <v>3109.5113860312599</v>
+        <f t="shared" si="54"/>
+        <v>7334.2438304637617</v>
       </c>
       <c r="BF34" s="37">
-        <f t="shared" si="48"/>
-        <v>3078.4162721709472</v>
+        <f t="shared" si="54"/>
+        <v>7297.5726113114424</v>
       </c>
       <c r="BG34" s="37">
-        <f t="shared" si="48"/>
-        <v>3047.6321094492378</v>
+        <f t="shared" si="54"/>
+        <v>7261.0847482548852</v>
       </c>
       <c r="BH34" s="37">
-        <f t="shared" si="48"/>
-        <v>3017.1557883547453</v>
+        <f t="shared" si="54"/>
+        <v>7224.7793245136108</v>
       </c>
       <c r="BI34" s="37">
-        <f t="shared" si="48"/>
-        <v>2986.9842304711979</v>
+        <f t="shared" si="54"/>
+        <v>7188.6554278910426</v>
       </c>
       <c r="BJ34" s="37">
-        <f t="shared" si="48"/>
-        <v>2957.1143881664857</v>
+        <f t="shared" si="54"/>
+        <v>7152.7121507515876</v>
       </c>
       <c r="BK34" s="37">
-        <f t="shared" si="48"/>
-        <v>2927.543244284821</v>
+        <f t="shared" si="54"/>
+        <v>7116.9485899978299</v>
       </c>
       <c r="BL34" s="37">
-        <f t="shared" si="48"/>
-        <v>2898.2678118419726</v>
+        <f t="shared" si="54"/>
+        <v>7081.3638470478409</v>
       </c>
       <c r="BM34" s="37">
-        <f t="shared" si="48"/>
-        <v>2869.2851337235529</v>
+        <f t="shared" si="54"/>
+        <v>7045.9570278126021</v>
       </c>
       <c r="BN34" s="37">
-        <f t="shared" si="48"/>
-        <v>2840.5922823863175</v>
+        <f t="shared" si="54"/>
+        <v>7010.727242673539</v>
       </c>
       <c r="BO34" s="37">
-        <f t="shared" si="48"/>
-        <v>2812.1863595624541</v>
+        <f t="shared" si="54"/>
+        <v>6975.673606460171</v>
       </c>
       <c r="BP34" s="37">
-        <f t="shared" si="48"/>
-        <v>2784.0644959668293</v>
+        <f t="shared" si="54"/>
+        <v>6940.7952384278697</v>
       </c>
       <c r="BQ34" s="37">
-        <f t="shared" si="48"/>
-        <v>2756.2238510071611</v>
+        <f t="shared" si="54"/>
+        <v>6906.09126223573</v>
       </c>
       <c r="BR34" s="37">
-        <f t="shared" si="48"/>
-        <v>2728.6616124970897</v>
+        <f t="shared" si="54"/>
+        <v>6871.5608059245515</v>
       </c>
       <c r="BS34" s="37">
-        <f t="shared" si="48"/>
-        <v>2701.3749963721189</v>
+        <f t="shared" si="54"/>
+        <v>6837.203001894929</v>
       </c>
       <c r="BT34" s="37">
-        <f t="shared" si="48"/>
-        <v>2674.3612464083976</v>
+        <f t="shared" si="54"/>
+        <v>6803.0169868854546</v>
       </c>
       <c r="BU34" s="37">
-        <f t="shared" si="48"/>
-        <v>2647.6176339443136</v>
+        <f t="shared" si="54"/>
+        <v>6769.0019019510273</v>
       </c>
       <c r="BV34" s="37">
-        <f t="shared" si="48"/>
-        <v>2621.1414576048705</v>
+        <f t="shared" si="54"/>
+        <v>6735.1568924412722</v>
       </c>
       <c r="BW34" s="37">
-        <f t="shared" si="48"/>
-        <v>2594.9300430288217</v>
+        <f t="shared" si="54"/>
+        <v>6701.4811079790661</v>
       </c>
       <c r="BX34" s="37">
-        <f t="shared" si="48"/>
-        <v>2568.9807425985337</v>
+        <f t="shared" si="54"/>
+        <v>6667.9737024391707</v>
       </c>
       <c r="BY34" s="37">
-        <f t="shared" si="48"/>
-        <v>2543.2909351725484</v>
+        <f t="shared" si="54"/>
+        <v>6634.6338339269751</v>
       </c>
       <c r="BZ34" s="37">
-        <f t="shared" si="48"/>
-        <v>2517.8580258208231</v>
+        <f t="shared" si="54"/>
+        <v>6601.4606647573401</v>
       </c>
       <c r="CA34" s="37">
-        <f t="shared" si="48"/>
-        <v>2492.679445562615</v>
+        <f t="shared" si="54"/>
+        <v>6568.4533614335533</v>
       </c>
       <c r="CB34" s="37">
-        <f t="shared" si="48"/>
-        <v>2467.7526511069887</v>
+        <f t="shared" si="54"/>
+        <v>6535.6110946263852</v>
       </c>
       <c r="CC34" s="37">
-        <f t="shared" si="48"/>
-        <v>2443.0751245959186</v>
+        <f t="shared" si="54"/>
+        <v>6502.933039153253</v>
       </c>
       <c r="CD34" s="37">
-        <f t="shared" si="48"/>
-        <v>2418.6443733499596</v>
+        <f t="shared" si="54"/>
+        <v>6470.4183739574864</v>
       </c>
       <c r="CE34" s="37">
-        <f t="shared" si="48"/>
-        <v>2394.4579296164598</v>
+        <f t="shared" si="54"/>
+        <v>6438.0662820876987</v>
       </c>
       <c r="CF34" s="37">
-        <f t="shared" si="48"/>
-        <v>2370.5133503202951</v>
+        <f t="shared" si="54"/>
+        <v>6405.8759506772603</v>
       </c>
       <c r="CG34" s="37">
-        <f t="shared" si="48"/>
-        <v>2346.8082168170922</v>
+        <f t="shared" si="54"/>
+        <v>6373.8465709238744</v>
       </c>
       <c r="CH34" s="37">
-        <f t="shared" si="48"/>
-        <v>2323.3401346489213</v>
+        <f t="shared" si="54"/>
+        <v>6341.977338069255</v>
       </c>
       <c r="CI34" s="37">
-        <f t="shared" si="48"/>
-        <v>2300.1067333024321</v>
+        <f t="shared" si="54"/>
+        <v>6310.2674513789088</v>
       </c>
       <c r="CJ34" s="37">
-        <f t="shared" ref="CJ34:DR34" si="49">CI34*($F$2+1)</f>
-        <v>2277.1056659694077</v>
+        <f t="shared" ref="CJ34:DR34" si="55">CI34*($F$2+1)</f>
+        <v>6278.716114122014</v>
       </c>
       <c r="CK34" s="37">
-        <f t="shared" si="49"/>
-        <v>2254.3346093097134</v>
+        <f t="shared" si="55"/>
+        <v>6247.3225335514035</v>
       </c>
       <c r="CL34" s="37">
-        <f t="shared" si="49"/>
-        <v>2231.7912632166162</v>
+        <f t="shared" si="55"/>
+        <v>6216.0859208836464</v>
       </c>
       <c r="CM34" s="37">
-        <f t="shared" si="49"/>
-        <v>2209.4733505844501</v>
+        <f t="shared" si="55"/>
+        <v>6185.0054912792284</v>
       </c>
       <c r="CN34" s="37">
-        <f t="shared" si="49"/>
-        <v>2187.3786170786057</v>
+        <f t="shared" si="55"/>
+        <v>6154.0804638228319</v>
       </c>
       <c r="CO34" s="37">
-        <f t="shared" si="49"/>
-        <v>2165.5048309078197</v>
+        <f t="shared" si="55"/>
+        <v>6123.3100615037174</v>
       </c>
       <c r="CP34" s="37">
-        <f t="shared" si="49"/>
-        <v>2143.8497825987415</v>
+        <f t="shared" si="55"/>
+        <v>6092.6935111961984</v>
       </c>
       <c r="CQ34" s="37">
-        <f t="shared" si="49"/>
-        <v>2122.4112847727542</v>
+        <f t="shared" si="55"/>
+        <v>6062.2300436402174</v>
       </c>
       <c r="CR34" s="37">
-        <f t="shared" si="49"/>
-        <v>2101.1871719250266</v>
+        <f t="shared" si="55"/>
+        <v>6031.9188934220165</v>
       </c>
       <c r="CS34" s="37">
-        <f t="shared" si="49"/>
-        <v>2080.1753002057762</v>
+        <f t="shared" si="55"/>
+        <v>6001.7592989549066</v>
       </c>
       <c r="CT34" s="37">
-        <f t="shared" si="49"/>
-        <v>2059.3735472037183</v>
+        <f t="shared" si="55"/>
+        <v>5971.7505024601323</v>
       </c>
       <c r="CU34" s="37">
-        <f t="shared" si="49"/>
-        <v>2038.7798117316811</v>
+        <f t="shared" si="55"/>
+        <v>5941.8917499478321</v>
       </c>
       <c r="CV34" s="37">
-        <f t="shared" si="49"/>
-        <v>2018.3920136143643</v>
+        <f t="shared" si="55"/>
+        <v>5912.1822911980926</v>
       </c>
       <c r="CW34" s="37">
-        <f t="shared" si="49"/>
-        <v>1998.2080934782207</v>
+        <f t="shared" si="55"/>
+        <v>5882.6213797421024</v>
       </c>
       <c r="CX34" s="37">
-        <f t="shared" si="49"/>
-        <v>1978.2260125434384</v>
+        <f t="shared" si="55"/>
+        <v>5853.2082728433916</v>
       </c>
       <c r="CY34" s="37">
-        <f t="shared" si="49"/>
-        <v>1958.4437524180039</v>
+        <f t="shared" si="55"/>
+        <v>5823.9422314791746</v>
       </c>
       <c r="CZ34" s="37">
-        <f t="shared" si="49"/>
-        <v>1938.8593148938239</v>
+        <f t="shared" si="55"/>
+        <v>5794.8225203217789</v>
       </c>
       <c r="DA34" s="37">
-        <f t="shared" si="49"/>
-        <v>1919.4707217448856</v>
+        <f t="shared" si="55"/>
+        <v>5765.8484077201701</v>
       </c>
       <c r="DB34" s="37">
-        <f t="shared" si="49"/>
-        <v>1900.2760145274367</v>
+        <f t="shared" si="55"/>
+        <v>5737.0191656815696</v>
       </c>
       <c r="DC34" s="37">
-        <f t="shared" si="49"/>
-        <v>1881.2732543821623</v>
+        <f t="shared" si="55"/>
+        <v>5708.334069853162</v>
       </c>
       <c r="DD34" s="37">
-        <f t="shared" si="49"/>
-        <v>1862.4605218383408</v>
+        <f t="shared" si="55"/>
+        <v>5679.7923995038964</v>
       </c>
       <c r="DE34" s="37">
-        <f t="shared" si="49"/>
-        <v>1843.8359166199573</v>
+        <f t="shared" si="55"/>
+        <v>5651.3934375063773</v>
       </c>
       <c r="DF34" s="37">
-        <f t="shared" si="49"/>
-        <v>1825.3975574537576</v>
+        <f t="shared" si="55"/>
+        <v>5623.1364703188456</v>
       </c>
       <c r="DG34" s="37">
-        <f t="shared" si="49"/>
-        <v>1807.1435818792199</v>
+        <f t="shared" si="55"/>
+        <v>5595.0207879672516</v>
       </c>
       <c r="DH34" s="37">
-        <f t="shared" si="49"/>
-        <v>1789.0721460604277</v>
+        <f t="shared" si="55"/>
+        <v>5567.0456840274155</v>
       </c>
       <c r="DI34" s="37">
-        <f t="shared" si="49"/>
-        <v>1771.1814245998235</v>
+        <f t="shared" si="55"/>
+        <v>5539.2104556072782</v>
       </c>
       <c r="DJ34" s="37">
-        <f t="shared" si="49"/>
-        <v>1753.4696103538251</v>
+        <f t="shared" si="55"/>
+        <v>5511.5144033292418</v>
       </c>
       <c r="DK34" s="37">
-        <f t="shared" si="49"/>
-        <v>1735.934914250287</v>
+        <f t="shared" si="55"/>
+        <v>5483.9568313125956</v>
       </c>
       <c r="DL34" s="37">
-        <f t="shared" si="49"/>
-        <v>1718.5755651077841</v>
+        <f t="shared" si="55"/>
+        <v>5456.5370471560327</v>
       </c>
       <c r="DM34" s="37">
-        <f t="shared" si="49"/>
-        <v>1701.3898094567062</v>
+        <f t="shared" si="55"/>
+        <v>5429.2543619202524</v>
       </c>
       <c r="DN34" s="37">
-        <f t="shared" si="49"/>
-        <v>1684.375911362139</v>
+        <f t="shared" si="55"/>
+        <v>5402.1080901106516</v>
       </c>
       <c r="DO34" s="37">
-        <f t="shared" si="49"/>
-        <v>1667.5321522485176</v>
+        <f t="shared" si="55"/>
+        <v>5375.0975496600986</v>
       </c>
       <c r="DP34" s="37">
-        <f t="shared" si="49"/>
-        <v>1650.8568307260325</v>
+        <f t="shared" si="55"/>
+        <v>5348.2220619117979</v>
       </c>
       <c r="DQ34" s="37">
-        <f t="shared" si="49"/>
-        <v>1634.3482624187723</v>
+        <f t="shared" si="55"/>
+        <v>5321.4809516022387</v>
       </c>
       <c r="DR34" s="37">
-        <f t="shared" si="49"/>
-        <v>1618.0047797945845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.15">
+        <f t="shared" si="55"/>
+        <v>5294.8735468442273</v>
+      </c>
+      <c r="DS34" s="37">
+        <f t="shared" ref="DS34" si="56">DR34*($F$2+1)</f>
+        <v>5268.3991791100061</v>
+      </c>
+      <c r="DT34" s="37">
+        <f t="shared" ref="DT34" si="57">DS34*($F$2+1)</f>
+        <v>5242.057183214456</v>
+      </c>
+      <c r="DU34" s="37">
+        <f t="shared" ref="DU34" si="58">DT34*($F$2+1)</f>
+        <v>5215.8468972983837</v>
+      </c>
+      <c r="DV34" s="37">
+        <f t="shared" ref="DV34" si="59">DU34*($F$2+1)</f>
+        <v>5189.7676628118916</v>
+      </c>
+      <c r="DW34" s="37">
+        <f t="shared" ref="DW34" si="60">DV34*($F$2+1)</f>
+        <v>5163.8188244978319</v>
+      </c>
+      <c r="DX34" s="37">
+        <f t="shared" ref="DX34" si="61">DW34*($F$2+1)</f>
+        <v>5137.9997303753426</v>
+      </c>
+      <c r="DY34" s="37">
+        <f t="shared" ref="DY34" si="62">DX34*($F$2+1)</f>
+        <v>5112.309731723466</v>
+      </c>
+      <c r="DZ34" s="37">
+        <f t="shared" ref="DZ34" si="63">DY34*($F$2+1)</f>
+        <v>5086.7481830648485</v>
+      </c>
+      <c r="EA34" s="37">
+        <f t="shared" ref="EA34" si="64">DZ34*($F$2+1)</f>
+        <v>5061.3144421495244</v>
+      </c>
+      <c r="EB34" s="37">
+        <f t="shared" ref="EB34" si="65">EA34*($F$2+1)</f>
+        <v>5036.0078699387768</v>
+      </c>
+      <c r="EC34" s="37">
+        <f t="shared" ref="EC34" si="66">EB34*($F$2+1)</f>
+        <v>5010.8278305890826</v>
+      </c>
+      <c r="ED34" s="37">
+        <f t="shared" ref="ED34" si="67">EC34*($F$2+1)</f>
+        <v>4985.7736914361376</v>
+      </c>
+      <c r="EE34" s="37">
+        <f t="shared" ref="EE34" si="68">ED34*($F$2+1)</f>
+        <v>4960.8448229789565</v>
+      </c>
+      <c r="EF34" s="37">
+        <f t="shared" ref="EF34" si="69">EE34*($F$2+1)</f>
+        <v>4936.0405988640614</v>
+      </c>
+      <c r="EG34" s="37">
+        <f t="shared" ref="EG34" si="70">EF34*($F$2+1)</f>
+        <v>4911.3603958697413</v>
+      </c>
+      <c r="EH34" s="37">
+        <f t="shared" ref="EH34" si="71">EG34*($F$2+1)</f>
+        <v>4886.8035938903922</v>
+      </c>
+      <c r="EI34" s="37">
+        <f t="shared" ref="EI34" si="72">EH34*($F$2+1)</f>
+        <v>4862.3695759209404</v>
+      </c>
+      <c r="EJ34" s="37">
+        <f t="shared" ref="EJ34" si="73">EI34*($F$2+1)</f>
+        <v>4838.0577280413354</v>
+      </c>
+      <c r="EK34" s="37">
+        <f t="shared" ref="EK34" si="74">EJ34*($F$2+1)</f>
+        <v>4813.8674394011286</v>
+      </c>
+      <c r="EL34" s="37">
+        <f t="shared" ref="EL34" si="75">EK34*($F$2+1)</f>
+        <v>4789.7981022041231</v>
+      </c>
+      <c r="EM34" s="37">
+        <f t="shared" ref="EM34" si="76">EL34*($F$2+1)</f>
+        <v>4765.8491116931027</v>
+      </c>
+      <c r="EN34" s="37">
+        <f t="shared" ref="EN34" si="77">EM34*($F$2+1)</f>
+        <v>4742.0198661346376</v>
+      </c>
+      <c r="EO34" s="37">
+        <f t="shared" ref="EO34" si="78">EN34*($F$2+1)</f>
+        <v>4718.3097668039645</v>
+      </c>
+      <c r="EP34" s="37">
+        <f t="shared" ref="EP34" si="79">EO34*($F$2+1)</f>
+        <v>4694.7182179699448</v>
+      </c>
+      <c r="EQ34" s="37">
+        <f t="shared" ref="EQ34" si="80">EP34*($F$2+1)</f>
+        <v>4671.244626880095</v>
+      </c>
+      <c r="ER34" s="37">
+        <f t="shared" ref="ER34" si="81">EQ34*($F$2+1)</f>
+        <v>4647.8884037456946</v>
+      </c>
+      <c r="ES34" s="37">
+        <f t="shared" ref="ES34" si="82">ER34*($F$2+1)</f>
+        <v>4624.6489617269663</v>
+      </c>
+      <c r="ET34" s="37">
+        <f t="shared" ref="ET34" si="83">ES34*($F$2+1)</f>
+        <v>4601.5257169183315</v>
+      </c>
+      <c r="EU34" s="37">
+        <f t="shared" ref="EU34" si="84">ET34*($F$2+1)</f>
+        <v>4578.5180883337398</v>
+      </c>
+      <c r="EV34" s="37">
+        <f t="shared" ref="EV34" si="85">EU34*($F$2+1)</f>
+        <v>4555.6254978920715</v>
+      </c>
+      <c r="EW34" s="37">
+        <f t="shared" ref="EW34" si="86">EV34*($F$2+1)</f>
+        <v>4532.847370402611</v>
+      </c>
+      <c r="EX34" s="37">
+        <f t="shared" ref="EX34" si="87">EW34*($F$2+1)</f>
+        <v>4510.1831335505976</v>
+      </c>
+      <c r="EY34" s="37">
+        <f t="shared" ref="EY34" si="88">EX34*($F$2+1)</f>
+        <v>4487.632217882845</v>
+      </c>
+      <c r="EZ34" s="37">
+        <f t="shared" ref="EZ34" si="89">EY34*($F$2+1)</f>
+        <v>4465.1940567934307</v>
+      </c>
+      <c r="FA34" s="37">
+        <f t="shared" ref="FA34" si="90">EZ34*($F$2+1)</f>
+        <v>4442.8680865094639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
@@ -5696,67 +5899,70 @@
         <f>F34/F36</f>
         <v>-1.4583245278668993</v>
       </c>
-      <c r="G35" s="11">
-        <f t="shared" ref="G35:H35" si="50">G34/G36</f>
-        <v>-0.32604190915418346</v>
+      <c r="G35" s="43">
+        <f>G34/G36</f>
+        <v>-0.66193503751505833</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" si="50"/>
-        <v>0.39114573399627012</v>
+        <f t="shared" ref="G35:H35" si="91">H34/H36</f>
+        <v>0.89393497013287448</v>
       </c>
       <c r="I35" s="11">
-        <f t="shared" ref="I35:Q35" si="51">I34/I36</f>
-        <v>1.3108643799621449</v>
+        <f t="shared" ref="I35:Q35" si="92">I34/I36</f>
+        <v>1.7993911608157291</v>
       </c>
       <c r="J35" s="11">
-        <f t="shared" si="51"/>
-        <v>2.3519916279237241</v>
+        <f t="shared" si="92"/>
+        <v>3.2281508830854051</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="51"/>
-        <v>3.3587575925354227</v>
+        <f t="shared" si="92"/>
+        <v>5.4182811142832099</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" si="51"/>
-        <v>4.3896251258323709</v>
+        <f t="shared" si="92"/>
+        <v>8.7077315363932151</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="51"/>
-        <v>5.5477395424313496</v>
+        <f t="shared" si="92"/>
+        <v>10.292597791306264</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" si="51"/>
-        <v>6.8472579368380337</v>
+        <f t="shared" si="92"/>
+        <v>12.047251485166978</v>
       </c>
       <c r="O35" s="11">
-        <f t="shared" si="51"/>
-        <v>8.303820459702445</v>
+        <f t="shared" si="92"/>
+        <v>13.989434717127653</v>
       </c>
       <c r="P35" s="11">
-        <f t="shared" si="51"/>
-        <v>9.9347020798848096</v>
+        <f t="shared" si="92"/>
+        <v>16.138693071768774</v>
       </c>
       <c r="Q35" s="11">
-        <f t="shared" si="51"/>
-        <v>11.758979693830179</v>
+        <f t="shared" si="92"/>
+        <v>18.516557525521211</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" ref="R35:U35" si="52">R34/R36</f>
-        <v>13.797716125573313</v>
+        <f t="shared" ref="R35:U35" si="93">R34/R36</f>
+        <v>21.146744618318898</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="52"/>
-        <v>16.07416271545619</v>
+        <f t="shared" si="93"/>
+        <v>24.055376720776433</v>
       </c>
       <c r="T35" s="11">
-        <f t="shared" si="52"/>
-        <v>18.613982365899137</v>
+        <f t="shared" si="93"/>
+        <v>27.27122441040261</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="52"/>
-        <v>21.445495099873497</v>
-      </c>
-      <c r="V35" s="11"/>
+        <f t="shared" si="93"/>
+        <v>30.825973171909066</v>
+      </c>
+      <c r="V35" s="11">
+        <f t="shared" ref="V35" si="94">V34/V36</f>
+        <v>34.754516858385117</v>
+      </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -5858,7 +6064,7 @@
       <c r="DQ35" s="2"/>
       <c r="DR35" s="2"/>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -5883,66 +6089,69 @@
         <v>208.20400000000001</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36" si="53">F36</f>
-        <v>208.20400000000001</v>
+        <f>Reports!Y29</f>
+        <v>251.499</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" ref="H36" si="54">G36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="H36" si="95">G36</f>
+        <v>251.499</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" ref="I36" si="55">H36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="I36" si="96">H36</f>
+        <v>251.499</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" ref="J36" si="56">I36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="J36" si="97">I36</f>
+        <v>251.499</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" ref="K36" si="57">J36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="K36" si="98">J36</f>
+        <v>251.499</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36" si="58">K36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="L36" si="99">K36</f>
+        <v>251.499</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" ref="M36" si="59">L36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="M36" si="100">L36</f>
+        <v>251.499</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36" si="60">M36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="N36" si="101">M36</f>
+        <v>251.499</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36" si="61">N36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="O36" si="102">N36</f>
+        <v>251.499</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" ref="P36" si="62">O36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="P36" si="103">O36</f>
+        <v>251.499</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" ref="Q36:U36" si="63">P36</f>
-        <v>208.20400000000001</v>
+        <f t="shared" ref="Q36:V36" si="104">P36</f>
+        <v>251.499</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" si="63"/>
-        <v>208.20400000000001</v>
+        <f t="shared" si="104"/>
+        <v>251.499</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="63"/>
-        <v>208.20400000000001</v>
+        <f t="shared" si="104"/>
+        <v>251.499</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="63"/>
-        <v>208.20400000000001</v>
+        <f t="shared" si="104"/>
+        <v>251.499</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="63"/>
-        <v>208.20400000000001</v>
-      </c>
-      <c r="V36" s="6"/>
+        <f t="shared" si="104"/>
+        <v>251.499</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="104"/>
+        <v>251.499</v>
+      </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -6044,7 +6253,7 @@
       <c r="DQ36" s="2"/>
       <c r="DR36" s="2"/>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -6167,7 +6376,7 @@
       <c r="DQ37" s="2"/>
       <c r="DR37" s="2"/>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>18</v>
       </c>
@@ -6181,7 +6390,7 @@
         <v>0.27192061319010752</v>
       </c>
       <c r="E38" s="57">
-        <f t="shared" ref="E38:U38" si="64">E23/D23-1</f>
+        <f t="shared" ref="E38:V38" si="105">E23/D23-1</f>
         <v>0.23851637360535061</v>
       </c>
       <c r="F38" s="57">
@@ -6190,65 +6399,68 @@
       </c>
       <c r="G38" s="57">
         <f>G23/F23-1</f>
-        <v>0.30277169948942362</v>
+        <v>0.2177067833698032</v>
       </c>
       <c r="H38" s="57">
-        <f t="shared" si="64"/>
-        <v>0.27531213257936304</v>
+        <f t="shared" si="105"/>
+        <v>0.24020775081522583</v>
       </c>
       <c r="I38" s="57">
-        <f t="shared" si="64"/>
-        <v>0.2604648712483566</v>
+        <f t="shared" si="105"/>
+        <v>0.26345437061291177</v>
       </c>
       <c r="J38" s="57">
-        <f t="shared" si="64"/>
-        <v>0.2377915183946675</v>
+        <f t="shared" si="105"/>
+        <v>0.28527615870008205</v>
       </c>
       <c r="K38" s="57">
-        <f t="shared" si="64"/>
-        <v>0.20908445689049926</v>
+        <f t="shared" si="105"/>
+        <v>0.30506422775486319</v>
       </c>
       <c r="L38" s="57">
-        <f t="shared" si="64"/>
+        <f t="shared" si="105"/>
+        <v>0.32245712455996856</v>
+      </c>
+      <c r="M38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M38" s="57">
-        <f t="shared" si="64"/>
+      <c r="N38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N38" s="57">
-        <f t="shared" si="64"/>
+      <c r="O38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O38" s="57">
-        <f t="shared" si="64"/>
+      <c r="P38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P38" s="57">
-        <f t="shared" si="64"/>
+      <c r="Q38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q38" s="57">
-        <f t="shared" si="64"/>
+      <c r="R38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R38" s="57">
-        <f t="shared" si="64"/>
+      <c r="S38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S38" s="57">
-        <f t="shared" si="64"/>
+      <c r="T38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T38" s="57">
-        <f t="shared" si="64"/>
+      <c r="U38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U38" s="57">
-        <f t="shared" si="64"/>
+      <c r="V38" s="57">
+        <f t="shared" si="105"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V38" s="57"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
@@ -6350,7 +6562,7 @@
       <c r="DQ38" s="2"/>
       <c r="DR38" s="2"/>
     </row>
-    <row r="39" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -6364,74 +6576,77 @@
         <v>0.22919867854947773</v>
       </c>
       <c r="E39" s="19">
-        <f t="shared" ref="E39:U39" si="65">E26/D26-1</f>
+        <f t="shared" ref="E39:V39" si="106">E26/D26-1</f>
         <v>0.28386643123896449</v>
       </c>
       <c r="F39" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="106"/>
         <v>0.16053824321232257</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" si="65"/>
+        <f t="shared" si="106"/>
+        <v>8.6477756570254138E-2</v>
+      </c>
+      <c r="H39" s="19">
+        <f t="shared" si="106"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="106"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="H39" s="19">
-        <f t="shared" si="65"/>
+      <c r="J39" s="19">
+        <f t="shared" si="106"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="I39" s="19">
-        <f t="shared" si="65"/>
+      <c r="K39" s="19">
+        <f t="shared" si="106"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="J39" s="19">
-        <f t="shared" si="65"/>
+      <c r="L39" s="19">
+        <f t="shared" si="106"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="K39" s="19">
-        <f t="shared" si="65"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="L39" s="19">
-        <f t="shared" si="65"/>
+      <c r="M39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M39" s="19">
-        <f t="shared" si="65"/>
+      <c r="N39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N39" s="19">
-        <f t="shared" si="65"/>
+      <c r="O39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O39" s="19">
-        <f t="shared" si="65"/>
+      <c r="P39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P39" s="19">
-        <f t="shared" si="65"/>
+      <c r="Q39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q39" s="19">
-        <f t="shared" si="65"/>
+      <c r="R39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R39" s="19">
-        <f t="shared" si="65"/>
+      <c r="S39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S39" s="19">
-        <f t="shared" si="65"/>
+      <c r="T39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T39" s="19">
-        <f t="shared" si="65"/>
+      <c r="U39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U39" s="19">
-        <f t="shared" si="65"/>
+      <c r="V39" s="19">
+        <f t="shared" si="106"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V39" s="19"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
@@ -6533,88 +6748,91 @@
       <c r="DQ39" s="2"/>
       <c r="DR39" s="2"/>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="19">
-        <f t="shared" ref="C40:D41" si="66">C27/B27-1</f>
+        <f t="shared" ref="C40:D41" si="107">C27/B27-1</f>
         <v>0.24400092481332769</v>
       </c>
       <c r="D40" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="107"/>
         <v>0.17324269211740773</v>
       </c>
       <c r="E40" s="19">
-        <f t="shared" ref="E40:U40" si="67">E27/D27-1</f>
+        <f t="shared" ref="E40:V40" si="108">E27/D27-1</f>
         <v>0.23297583004054023</v>
       </c>
       <c r="F40" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="108"/>
         <v>0.29127738540518711</v>
       </c>
       <c r="G40" s="19">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="108"/>
+        <v>-5.5476066688434633E-2</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="108"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="I40" s="19">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="108"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J40" s="19">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="108"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K40" s="19">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="108"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="L40" s="19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="108"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M40" s="19">
-        <f t="shared" si="67"/>
+      <c r="N40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N40" s="19">
-        <f t="shared" si="67"/>
+      <c r="O40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O40" s="19">
-        <f t="shared" si="67"/>
+      <c r="P40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P40" s="19">
-        <f t="shared" si="67"/>
+      <c r="Q40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q40" s="19">
-        <f t="shared" si="67"/>
+      <c r="R40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R40" s="19">
-        <f t="shared" si="67"/>
+      <c r="S40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S40" s="19">
-        <f t="shared" si="67"/>
+      <c r="T40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T40" s="19">
-        <f t="shared" si="67"/>
+      <c r="U40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U40" s="19">
-        <f t="shared" si="67"/>
+      <c r="V40" s="19">
+        <f t="shared" si="108"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V40" s="19"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
@@ -6716,88 +6934,91 @@
       <c r="DQ40" s="2"/>
       <c r="DR40" s="2"/>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="107"/>
         <v>0.44039393672336291</v>
       </c>
       <c r="D41" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" si="107"/>
         <v>0.17864495859374774</v>
       </c>
       <c r="E41" s="19">
-        <f t="shared" ref="E41:U41" si="68">E28/D28-1</f>
+        <f t="shared" ref="E41:V41" si="109">E28/D28-1</f>
         <v>-0.1029877050137693</v>
       </c>
       <c r="F41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
         <v>5.9392361111111125E-2</v>
       </c>
       <c r="G41" s="19">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="109"/>
+        <v>0.18538426661859586</v>
       </c>
       <c r="H41" s="19">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="109"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I41" s="19">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="109"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="J41" s="19">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="109"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K41" s="19">
-        <f t="shared" si="68"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="109"/>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="68"/>
+        <f t="shared" si="109"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M41" s="19">
+        <f t="shared" si="109"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="N41" s="19">
+        <f t="shared" si="109"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="O41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M41" s="19">
-        <f t="shared" si="68"/>
+      <c r="P41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N41" s="19">
-        <f t="shared" si="68"/>
+      <c r="Q41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="O41" s="19">
-        <f t="shared" si="68"/>
+      <c r="R41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P41" s="19">
-        <f t="shared" si="68"/>
+      <c r="S41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="Q41" s="19">
-        <f t="shared" si="68"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="R41" s="19">
-        <f t="shared" si="68"/>
+      <c r="T41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="S41" s="19">
-        <f t="shared" si="68"/>
+      <c r="U41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="T41" s="19">
-        <f t="shared" si="68"/>
+      <c r="V41" s="19">
+        <f t="shared" si="109"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="U41" s="19">
-        <f t="shared" si="68"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="V41" s="19"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
@@ -6899,88 +7120,91 @@
       <c r="DQ41" s="2"/>
       <c r="DR41" s="2"/>
     </row>
-    <row r="42" spans="1:122" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:157" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67">
+        <v>132</v>
+      </c>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64">
         <f>C29/B29-1</f>
         <v>0.32300018837173106</v>
       </c>
-      <c r="D42" s="67">
-        <f t="shared" ref="D42:U42" si="69">D29/C29-1</f>
+      <c r="D42" s="64">
+        <f t="shared" ref="D42:V42" si="110">D29/C29-1</f>
         <v>0.19009370402240133</v>
       </c>
-      <c r="E42" s="67">
-        <f t="shared" si="69"/>
+      <c r="E42" s="64">
+        <f t="shared" si="110"/>
         <v>0.13487535382521365</v>
       </c>
-      <c r="F42" s="67">
-        <f t="shared" si="69"/>
+      <c r="F42" s="64">
+        <f t="shared" si="110"/>
         <v>0.18902721767647868</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="64">
         <f>G29/F29-1</f>
-        <v>0.16116173450015214</v>
-      </c>
-      <c r="H42" s="67">
+        <v>4.4662871358055245E-2</v>
+      </c>
+      <c r="H42" s="64">
         <f>H29/G29-1</f>
-        <v>0.16254796236544711</v>
-      </c>
-      <c r="I42" s="67">
-        <f t="shared" si="69"/>
-        <v>0.16391059760707516</v>
-      </c>
-      <c r="J42" s="67">
-        <f t="shared" si="69"/>
-        <v>0.1652476946877639</v>
-      </c>
-      <c r="K42" s="67">
-        <f t="shared" si="69"/>
-        <v>0.1665574938819725</v>
-      </c>
-      <c r="L42" s="67">
-        <f t="shared" si="69"/>
-        <v>5.2007157463846765E-2</v>
-      </c>
-      <c r="M42" s="67">
-        <f t="shared" si="69"/>
-        <v>5.351504843066035E-2</v>
-      </c>
-      <c r="N42" s="67">
-        <f t="shared" si="69"/>
-        <v>5.4987637072597906E-2</v>
-      </c>
-      <c r="O42" s="67">
-        <f t="shared" si="69"/>
-        <v>5.642428641484809E-2</v>
-      </c>
-      <c r="P42" s="67">
-        <f t="shared" si="69"/>
-        <v>5.7824586994714267E-2</v>
-      </c>
-      <c r="Q42" s="67">
-        <f t="shared" si="69"/>
-        <v>5.9188337329887153E-2</v>
-      </c>
-      <c r="R42" s="67">
-        <f t="shared" si="69"/>
-        <v>6.0515523469435895E-2</v>
-      </c>
-      <c r="S42" s="67">
-        <f t="shared" si="69"/>
-        <v>6.1806298157472517E-2</v>
-      </c>
-      <c r="T42" s="67">
-        <f t="shared" si="69"/>
-        <v>6.3060960078359596E-2</v>
-      </c>
-      <c r="U42" s="67">
-        <f t="shared" si="69"/>
-        <v>6.4279933585486004E-2</v>
-      </c>
-      <c r="V42" s="67"/>
+        <v>6.4514145141451262E-2</v>
+      </c>
+      <c r="I42" s="64">
+        <f t="shared" si="110"/>
+        <v>0.14654803859263965</v>
+      </c>
+      <c r="J42" s="64">
+        <f t="shared" si="110"/>
+        <v>0.14800031241181921</v>
+      </c>
+      <c r="K42" s="64">
+        <f t="shared" si="110"/>
+        <v>0.14945548727535374</v>
+      </c>
+      <c r="L42" s="64">
+        <f t="shared" si="110"/>
+        <v>0.15091078990701479</v>
+      </c>
+      <c r="M42" s="64">
+        <f t="shared" si="110"/>
+        <v>4.1451173618997306E-2</v>
+      </c>
+      <c r="N42" s="64">
+        <f t="shared" si="110"/>
+        <v>4.3860560945912841E-2</v>
+      </c>
+      <c r="O42" s="64">
+        <f t="shared" si="110"/>
+        <v>4.6243566099662292E-2</v>
+      </c>
+      <c r="P42" s="64">
+        <f t="shared" si="110"/>
+        <v>4.8591959584562083E-2</v>
+      </c>
+      <c r="Q42" s="64">
+        <f t="shared" si="110"/>
+        <v>5.0898088296659205E-2</v>
+      </c>
+      <c r="R42" s="64">
+        <f t="shared" si="110"/>
+        <v>5.3154970950447078E-2</v>
+      </c>
+      <c r="S42" s="64">
+        <f t="shared" si="110"/>
+        <v>5.5356372404478549E-2</v>
+      </c>
+      <c r="T42" s="64">
+        <f t="shared" si="110"/>
+        <v>5.7496855837402494E-2</v>
+      </c>
+      <c r="U42" s="64">
+        <f t="shared" si="110"/>
+        <v>5.9571812772996724E-2</v>
+      </c>
+      <c r="V42" s="64">
+        <f t="shared" si="110"/>
+        <v>6.1577471899932679E-2</v>
+      </c>
       <c r="W42" s="58"/>
       <c r="X42" s="58"/>
       <c r="Y42" s="58"/>
@@ -7082,7 +7306,7 @@
       <c r="DQ42" s="58"/>
       <c r="DR42" s="58"/>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -7205,91 +7429,94 @@
       <c r="DQ43" s="2"/>
       <c r="DR43" s="2"/>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="16">
-        <f t="shared" ref="B44:G44" si="70">IFERROR(B25/B23,0)</f>
+        <f t="shared" ref="B44:G44" si="111">IFERROR(B25/B23,0)</f>
         <v>0.90442655779560921</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="111"/>
         <v>0.9170542022161875</v>
       </c>
       <c r="D44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="111"/>
         <v>0.9208734446885849</v>
       </c>
       <c r="E44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="111"/>
         <v>0.8848328655613602</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="111"/>
         <v>0.47872064186725022</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="70"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="111"/>
+        <v>0.47395829589643701</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" ref="H44:Q44" si="71">IFERROR(H25/H23,0)</f>
-        <v>0.47872064186725022</v>
+        <f t="shared" ref="H44:Q44" si="112">IFERROR(H25/H23,0)</f>
+        <v>0.47395829589643701</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725016</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="L44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725016</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="M44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="O44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="P44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725027</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="Q44" s="16">
-        <f t="shared" si="71"/>
-        <v>0.47872064186725022</v>
+        <f t="shared" si="112"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="R44" s="16">
-        <f t="shared" ref="R44:U44" si="72">IFERROR(R25/R23,0)</f>
-        <v>0.47872064186725022</v>
+        <f t="shared" ref="R44:U44" si="113">IFERROR(R25/R23,0)</f>
+        <v>0.47395829589643695</v>
       </c>
       <c r="S44" s="16">
-        <f t="shared" si="72"/>
-        <v>0.47872064186725016</v>
+        <f t="shared" si="113"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="T44" s="16">
-        <f t="shared" si="72"/>
-        <v>0.47872064186725011</v>
+        <f t="shared" si="113"/>
+        <v>0.47395829589643695</v>
       </c>
       <c r="U44" s="16">
-        <f t="shared" si="72"/>
-        <v>0.47872064186725011</v>
-      </c>
-      <c r="V44" s="16"/>
+        <f t="shared" si="113"/>
+        <v>0.47395829589643695</v>
+      </c>
+      <c r="V44" s="16">
+        <f t="shared" ref="V44" si="114">IFERROR(V25/V23,0)</f>
+        <v>0.47395829589643695</v>
+      </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
@@ -7391,7 +7618,7 @@
       <c r="DQ44" s="2"/>
       <c r="DR44" s="2"/>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
@@ -7412,70 +7639,73 @@
         <v>-9.6730195174512784E-2</v>
       </c>
       <c r="F45" s="19">
-        <f t="shared" ref="F45:Q45" si="73">IFERROR(F30/F23,0)</f>
+        <f t="shared" ref="F45:Q45" si="115">IFERROR(F30/F23,0)</f>
         <v>-8.8924507658643293E-2</v>
       </c>
       <c r="G45" s="19">
-        <f t="shared" si="73"/>
-        <v>-2.7222054510332275E-2</v>
+        <f t="shared" si="115"/>
+        <v>-1.3020852051781414E-2</v>
       </c>
       <c r="H45" s="19">
-        <f t="shared" si="73"/>
-        <v>1.7513823770241473E-2</v>
+        <f t="shared" si="115"/>
+        <v>5.596688192643668E-2</v>
       </c>
       <c r="I45" s="19">
-        <f t="shared" si="73"/>
-        <v>5.2843240984113971E-2</v>
+        <f t="shared" si="115"/>
+        <v>9.4643263250357837E-2</v>
       </c>
       <c r="J45" s="19">
-        <f t="shared" si="73"/>
-        <v>7.7802836062361838E-2</v>
+        <f t="shared" si="115"/>
+        <v>0.1351565737664531</v>
       </c>
       <c r="K45" s="19">
-        <f t="shared" si="73"/>
-        <v>9.1904263468659417E-2</v>
+        <f t="shared" si="115"/>
+        <v>0.1755534432321284</v>
       </c>
       <c r="L45" s="19">
-        <f t="shared" si="73"/>
-        <v>0.10878100668583093</v>
+        <f t="shared" si="115"/>
+        <v>0.21426188811592736</v>
       </c>
       <c r="M45" s="19">
-        <f t="shared" si="73"/>
-        <v>0.12441430307218319</v>
+        <f t="shared" si="115"/>
+        <v>0.22808454256221022</v>
       </c>
       <c r="N45" s="19">
-        <f t="shared" si="73"/>
-        <v>0.13891263535338566</v>
+        <f t="shared" si="115"/>
+        <v>0.24063291946248888</v>
       </c>
       <c r="O45" s="19">
-        <f t="shared" si="73"/>
-        <v>0.15237388659501264</v>
+        <f t="shared" si="115"/>
+        <v>0.25203541053116429</v>
       </c>
       <c r="P45" s="19">
-        <f t="shared" si="73"/>
-        <v>0.16488644040095954</v>
+        <f t="shared" si="115"/>
+        <v>0.26240688385840844</v>
       </c>
       <c r="Q45" s="19">
-        <f t="shared" si="73"/>
-        <v>0.17653016364149274</v>
+        <f t="shared" si="115"/>
+        <v>0.27185013727168883</v>
       </c>
       <c r="R45" s="19">
-        <f t="shared" ref="R45:U45" si="74">IFERROR(R30/R23,0)</f>
-        <v>0.1873772844099153</v>
+        <f t="shared" ref="R45:U45" si="116">IFERROR(R30/R23,0)</f>
+        <v>0.28045719414616876</v>
       </c>
       <c r="S45" s="19">
-        <f t="shared" si="74"/>
-        <v>0.19749317652675746</v>
+        <f t="shared" si="116"/>
+        <v>0.28831045880604345</v>
       </c>
       <c r="T45" s="19">
-        <f t="shared" si="74"/>
-        <v>0.2069370606806431</v>
+        <f t="shared" si="116"/>
+        <v>0.29548374679088651</v>
       </c>
       <c r="U45" s="19">
-        <f t="shared" si="74"/>
-        <v>0.21576263119915226</v>
-      </c>
-      <c r="V45" s="19"/>
+        <f t="shared" si="116"/>
+        <v>0.30204320359679038</v>
+      </c>
+      <c r="V45" s="19">
+        <f t="shared" ref="V45" si="117">IFERROR(V30/V23,0)</f>
+        <v>0.30804812401925297</v>
+      </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
@@ -7577,7 +7807,7 @@
       <c r="DQ45" s="2"/>
       <c r="DR45" s="2"/>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>21</v>
       </c>
@@ -7598,31 +7828,31 @@
         <v>0.20599124427930884</v>
       </c>
       <c r="F46" s="19">
-        <f t="shared" ref="F46:Q46" si="75">IFERROR(F33/F32,0)</f>
+        <f t="shared" ref="F46:Q46" si="118">IFERROR(F33/F32,0)</f>
         <v>1.1395862976143579E-2</v>
       </c>
       <c r="G46" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="118"/>
+        <v>4.0351403075929888E-2</v>
+      </c>
+      <c r="H46" s="19">
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
-      <c r="H46" s="19">
-        <f t="shared" si="75"/>
+      <c r="I46" s="19">
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
-      <c r="I46" s="19">
-        <f t="shared" si="75"/>
+      <c r="J46" s="19">
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
-      <c r="J46" s="19">
-        <f t="shared" si="75"/>
+      <c r="K46" s="19">
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
-      <c r="K46" s="19">
-        <f t="shared" si="75"/>
-        <v>0.15</v>
-      </c>
       <c r="L46" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
       <c r="M46" s="19">
@@ -7630,38 +7860,41 @@
         <v>0.15</v>
       </c>
       <c r="N46" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
       <c r="O46" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
       <c r="P46" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
       <c r="Q46" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="118"/>
         <v>0.15</v>
       </c>
       <c r="R46" s="19">
-        <f t="shared" ref="R46:U46" si="76">IFERROR(R33/R32,0)</f>
+        <f t="shared" ref="R46:U46" si="119">IFERROR(R33/R32,0)</f>
         <v>0.15</v>
       </c>
       <c r="S46" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="119"/>
         <v>0.15</v>
       </c>
       <c r="T46" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="119"/>
         <v>0.15</v>
       </c>
       <c r="U46" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="119"/>
         <v>0.15</v>
       </c>
-      <c r="V46" s="19"/>
+      <c r="V46" s="19">
+        <f t="shared" ref="V46" si="120">IFERROR(V33/V32,0)</f>
+        <v>0.15</v>
+      </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
@@ -7763,7 +7996,7 @@
       <c r="DQ46" s="2"/>
       <c r="DR46" s="2"/>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:157" x14ac:dyDescent="0.15">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -7886,7 +8119,7 @@
       <c r="DQ47" s="2"/>
       <c r="DR47" s="2"/>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:157" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>26</v>
       </c>
@@ -7910,67 +8143,70 @@
         <f>F49-F50</f>
         <v>869</v>
       </c>
-      <c r="G48" s="10">
-        <f t="shared" ref="G48:U48" si="77">F48+G34</f>
-        <v>801.11677034646243</v>
+      <c r="G48" s="37">
+        <f>G49-G50</f>
+        <v>1637</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="77"/>
-        <v>882.55487674742187</v>
+        <f t="shared" ref="G48:V48" si="121">G48+H34</f>
+        <v>1861.8237510534477</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="77"/>
-        <v>1155.4820841130604</v>
+        <f t="shared" si="121"/>
+        <v>2314.368828607443</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" si="77"/>
-        <v>1645.1761490132915</v>
+        <f t="shared" si="121"/>
+        <v>3126.2455475525394</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="77"/>
-        <v>2344.4829148095369</v>
+        <f t="shared" si="121"/>
+        <v>4488.9378295136521</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" si="77"/>
-        <v>3258.4204245083397</v>
+        <f t="shared" si="121"/>
+        <v>6678.9236031850087</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" si="77"/>
-        <v>4413.4819882007159</v>
+        <f t="shared" si="121"/>
+        <v>9267.5016551007429</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="77"/>
-        <v>5839.1084796821415</v>
+        <f t="shared" si="121"/>
+        <v>12297.373356368753</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" si="77"/>
-        <v>7567.9971146740299</v>
+        <f t="shared" si="121"/>
+        <v>15815.702198291641</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="77"/>
-        <v>9636.4418265143668</v>
+        <f t="shared" si="121"/>
+        <v>19874.567367148415</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="77"/>
-        <v>12084.708434688586</v>
+        <f t="shared" si="121"/>
+        <v>24531.463068259472</v>
       </c>
       <c r="R48" s="10">
-        <f t="shared" si="77"/>
-        <v>14957.448122897451</v>
+        <f t="shared" si="121"/>
+        <v>29849.848193022059</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" si="77"/>
-        <v>18304.153096906291</v>
+        <f t="shared" si="121"/>
+        <v>35899.751382920615</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" si="77"/>
-        <v>22179.658681415956</v>
+        <f t="shared" si="121"/>
+        <v>42758.437050912456</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="77"/>
-        <v>26644.696543190017</v>
-      </c>
-      <c r="V48" s="10"/>
+        <f t="shared" si="121"/>
+        <v>50511.138477674416</v>
+      </c>
+      <c r="V48" s="10">
+        <f t="shared" si="121"/>
+        <v>59251.864713041417</v>
+      </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
@@ -8096,7 +8332,10 @@
         <f>Reports!U41</f>
         <v>2422</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="2">
+        <f>Reports!Y41</f>
+        <v>3921</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -8237,7 +8476,10 @@
         <f>Reports!U42</f>
         <v>1553</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2">
+        <f>Reports!Y42</f>
+        <v>2284</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -8498,7 +8740,10 @@
         <f>Reports!U44</f>
         <v>2176</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2">
+        <f>Reports!Y44</f>
+        <v>2080</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -8636,7 +8881,10 @@
         <f>Reports!U45</f>
         <v>6132</v>
       </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2">
+        <f>Reports!Y45</f>
+        <v>7487</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -8774,7 +9022,10 @@
         <f>Reports!U46</f>
         <v>2697</v>
       </c>
-      <c r="G54" s="2"/>
+      <c r="G54" s="2">
+        <f>Reports!Y46</f>
+        <v>2745</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -9035,7 +9286,10 @@
         <f>F53-F52-F49</f>
         <v>1534</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="41">
+        <f>G53-G52-G49</f>
+        <v>1486</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -9173,7 +9427,10 @@
         <f>F53-F54</f>
         <v>3435</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="41">
+        <f>G53-G54</f>
+        <v>4742</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -9434,7 +9691,10 @@
         <f>F34/F57</f>
         <v>-8.8392721979621516E-2</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="18">
+        <f>G34/G57</f>
+        <v>-3.510670603121039E-2</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -9572,7 +9832,10 @@
         <f>F34/F53</f>
         <v>-4.9515492498369194E-2</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="18">
+        <f>G34/G53</f>
+        <v>-2.2235341258180802E-2</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -9710,7 +9973,10 @@
         <f>F34/(F53-F52)</f>
         <v>-7.6751516683518678E-2</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" s="18">
+        <f>G34/(G53-G52)</f>
+        <v>-3.0788977251710682E-2</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -9848,7 +10114,10 @@
         <f>F34/F56</f>
         <v>-0.19793285528031285</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" s="18">
+        <f>G34/G56</f>
+        <v>-0.11202960969044391</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -9971,7 +10240,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -10090,26 +10359,29 @@
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18">
         <f>(C52/C36)/$C$2</f>
-        <v>9.8715924343089387E-2</v>
+        <v>7.8490974029246943E-2</v>
       </c>
       <c r="D64" s="18">
         <f>(D52/D36)/$C$2</f>
-        <v>8.7023573971364246E-2</v>
+        <v>6.9194156160447037E-2</v>
       </c>
       <c r="E64" s="18">
         <f>(E52/E36)/$C$2</f>
-        <v>7.9188129045779432E-2</v>
+        <v>6.2964039710094136E-2</v>
       </c>
       <c r="F64" s="18">
         <f>(F52/F36)/$C$2</f>
-        <v>7.6549389582432681E-2</v>
-      </c>
-      <c r="G64" s="68"/>
+        <v>6.086592603627939E-2</v>
+      </c>
+      <c r="G64" s="18">
+        <f>(G52/G36)/$C$2</f>
+        <v>4.8164991077600965E-2</v>
+      </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -10615,31 +10887,35 @@
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F69" s="36">
         <f>F10/E10-1</f>
         <v>6.2396006655573988E-2</v>
       </c>
       <c r="G69" s="36">
-        <f t="shared" ref="G69:K69" si="78">G10/F10-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" ref="G69:L69" si="122">G10/F10-1</f>
+        <v>0.13534690681284256</v>
       </c>
       <c r="H69" s="36">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="122"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I69" s="36">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="122"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J69" s="36">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="122"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K69" s="36">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="122"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L69" s="36">
+        <f t="shared" si="122"/>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.15">
@@ -10651,24 +10927,28 @@
         <v>25.075992893575563</v>
       </c>
       <c r="G70" s="36">
-        <f t="shared" ref="G70:K70" si="79">G11/F11-1</f>
-        <v>0.5</v>
+        <f t="shared" ref="G70:L70" si="123">G11/F11-1</f>
+        <v>0.25651648351648348</v>
       </c>
       <c r="H70" s="36">
-        <f t="shared" si="79"/>
+        <f t="shared" si="123"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I70" s="36">
-        <f t="shared" si="79"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="123"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="J70" s="36">
-        <f t="shared" si="79"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="123"/>
+        <v>0.39999999999999991</v>
       </c>
       <c r="K70" s="36">
-        <f t="shared" si="79"/>
-        <v>0.25</v>
+        <f t="shared" si="123"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="L70" s="36">
+        <f t="shared" si="123"/>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.15">
@@ -10692,24 +10972,28 @@
         <v>0.26135216952573148</v>
       </c>
       <c r="G71" s="36">
-        <f t="shared" ref="G71:K71" si="80">G12/F12-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="G71:L71" si="124">G12/F12-1</f>
+        <v>0.73968999999999996</v>
       </c>
       <c r="H71" s="36">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="124"/>
+        <v>0.25</v>
       </c>
       <c r="I71" s="36">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="124"/>
+        <v>0.25</v>
       </c>
       <c r="J71" s="36">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="124"/>
+        <v>0.25</v>
       </c>
       <c r="K71" s="36">
-        <f t="shared" si="80"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="124"/>
+        <v>0.25</v>
+      </c>
+      <c r="L71" s="36">
+        <f t="shared" si="124"/>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -10719,22 +11003,23 @@
     <hyperlink ref="A1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="L4" r:id="rId4" xr:uid="{EF4FC87A-C18C-1A41-8AB8-6B48D7F8DE08}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{DB848E42-854A-8848-B44C-80A1FDA66BC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10755,7 +11040,7 @@
     <col min="23" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -10823,16 +11108,28 @@
         <v>88</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>52</v>
@@ -10894,22 +11191,25 @@
       <c r="U2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="V2" s="69">
+      <c r="V2" s="65">
         <v>43921</v>
       </c>
-      <c r="W2" s="70">
+      <c r="W2" s="66">
         <v>44012</v>
       </c>
-      <c r="X2" s="70">
+      <c r="X2" s="66">
         <v>44104</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="Y2" s="66">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="N3" s="5">
         <v>281</v>
       </c>
@@ -10926,27 +11226,33 @@
       <c r="R3" s="5">
         <v>298</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="3">
         <v>324</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="3">
         <v>335</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="3">
         <v>320</v>
       </c>
       <c r="V3" s="5">
         <v>331</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="3">
         <v>280</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="3">
         <v>415</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="Y3" s="3">
+        <v>423.83800000000002</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="3"/>
@@ -10972,28 +11278,33 @@
       <c r="R4" s="5">
         <v>128</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="47">
         <v>249</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="47">
         <v>385</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="47">
         <v>603</v>
       </c>
       <c r="V4" s="5">
         <v>770</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="47">
         <v>454</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="47">
         <v>187</v>
       </c>
-      <c r="Z4" s="47"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="Y4" s="47">
+        <v>304.14499999999998</v>
+      </c>
+      <c r="Z4" s="47">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="3">
@@ -11047,26 +11358,32 @@
       <c r="R5" s="5">
         <v>27</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="47">
         <v>27</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="47">
         <v>25</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="47">
         <v>21</v>
       </c>
       <c r="V5" s="5">
         <v>25</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="47">
         <v>34</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="47">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Y5" s="47">
+        <v>60.969000000000001</v>
+      </c>
+      <c r="Z5" s="47">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -11086,7 +11403,7 @@
       <c r="R6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -11134,7 +11451,7 @@
       <c r="R7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>97</v>
       </c>
@@ -11163,7 +11480,7 @@
       <c r="R8" s="5"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>98</v>
       </c>
@@ -11192,7 +11509,7 @@
       <c r="R9" s="5"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -11233,7 +11550,7 @@
       <c r="R10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
@@ -11274,7 +11591,7 @@
       <c r="R11" s="5"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -11294,7 +11611,7 @@
       <c r="R12" s="5"/>
       <c r="V12" s="5"/>
     </row>
-    <row r="13" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="47" t="s">
         <v>57</v>
       </c>
@@ -11334,14 +11651,12 @@
       <c r="O13" s="3">
         <v>186.1</v>
       </c>
-      <c r="P13" s="64" t="s">
-        <v>136</v>
-      </c>
+      <c r="P13" s="61"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="62"/>
-      <c r="V13" s="62"/>
-    </row>
-    <row r="14" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R13" s="59"/>
+      <c r="V13" s="59"/>
+    </row>
+    <row r="14" spans="1:29" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
         <v>71</v>
       </c>
@@ -11394,27 +11709,30 @@
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="63"/>
-      <c r="V14" s="63"/>
-    </row>
-    <row r="15" spans="1:26" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="59"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15" s="59"/>
-      <c r="V15" s="59"/>
-    </row>
-    <row r="16" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="R14" s="60"/>
+      <c r="V14" s="60"/>
+    </row>
+    <row r="15" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="7"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="6">
+        <v>340</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="Z15" s="2">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="67" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="37">
@@ -11509,10 +11827,17 @@
         <f>SUM(X3:X5)</f>
         <v>656</v>
       </c>
-      <c r="Z16" s="71"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="Y16" s="37">
+        <f>SUM(Y3:Y5)</f>
+        <v>788.952</v>
+      </c>
+      <c r="Z16" s="37">
+        <f>SUM(Z3:Z5)</f>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="6">
@@ -11566,27 +11891,30 @@
       <c r="R17" s="5">
         <v>151.34800000000001</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="47">
         <v>271</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="47">
         <v>400</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="47">
         <v>607</v>
       </c>
       <c r="V17" s="5">
         <v>762</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="47">
         <v>461</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="47">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="Y17" s="47">
+        <v>317.428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="39">
@@ -11681,9 +12009,13 @@
         <f>X16-X17</f>
         <v>440</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="Y18" s="39">
+        <f>Y16-Y17</f>
+        <v>471.524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="6">
@@ -11737,27 +12069,30 @@
       <c r="R19" s="5">
         <v>107.77</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="47">
         <v>120</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="47">
         <v>124</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="47">
         <v>125</v>
       </c>
       <c r="V19" s="5">
         <v>135</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="47">
         <v>129</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="47">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="Y19" s="47">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6">
@@ -11811,27 +12146,30 @@
       <c r="R20" s="5">
         <v>161.58699999999999</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="47">
         <v>187</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="47">
         <v>181</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="47">
         <v>184</v>
       </c>
       <c r="V20" s="5">
         <v>205</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="47">
         <v>156</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="47">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="Y20" s="47">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="6">
@@ -11902,28 +12240,31 @@
         <f>95.774+0.352</f>
         <v>96.126000000000005</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="47">
         <v>83</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="47">
         <v>88</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="47">
         <v>99</v>
       </c>
       <c r="V21" s="5">
         <f>92+77</f>
         <v>169</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="47">
         <v>86</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="47">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+      <c r="Y21" s="47">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="39">
@@ -12015,12 +12356,16 @@
         <v>371</v>
       </c>
       <c r="X22" s="39">
-        <f t="shared" ref="X22" si="12">SUM(X19:X21)</f>
+        <f t="shared" ref="X22:Y22" si="12">SUM(X19:X21)</f>
         <v>364</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="Y22" s="39">
+        <f t="shared" si="12"/>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="39">
@@ -12112,12 +12457,16 @@
         <v>-64</v>
       </c>
       <c r="X23" s="39">
-        <f t="shared" ref="X23" si="18">X18-X22</f>
+        <f t="shared" ref="X23:Y23" si="18">X18-X22</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="Y23" s="39">
+        <f t="shared" si="18"/>
+        <v>89.524000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="6">
@@ -12188,15 +12537,15 @@
         <f>9.168-16.466</f>
         <v>-7.2980000000000018</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="47">
         <f>9-19</f>
         <v>-10</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="47">
         <f>9-27</f>
         <v>-18</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="47">
         <f>12-40</f>
         <v>-28</v>
       </c>
@@ -12204,17 +12553,21 @@
         <f>9-38</f>
         <v>-29</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="47">
         <f>6+10-38</f>
         <v>-22</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="47">
         <f>3-39</f>
         <v>-36</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="Y24" s="47">
+        <f>-5+3-41</f>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="39">
@@ -12290,7 +12643,7 @@
         <v>-71</v>
       </c>
       <c r="T25" s="39">
-        <f t="shared" ref="T25:X25" si="24">T23+T24</f>
+        <f t="shared" ref="T25:Y25" si="24">T23+T24</f>
         <v>-66</v>
       </c>
       <c r="U25" s="39">
@@ -12309,9 +12662,13 @@
         <f t="shared" si="24"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="Y25" s="39">
+        <f t="shared" si="24"/>
+        <v>46.524000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="6">
@@ -12365,27 +12722,30 @@
       <c r="R26" s="5">
         <v>-2.5</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="47">
         <v>0</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="47">
         <v>-1</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="47">
         <v>0</v>
       </c>
       <c r="V26" s="5">
         <v>-9</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="47">
         <v>1</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
+      <c r="Y26" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="67" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="37">
@@ -12477,11 +12837,15 @@
         <v>-87</v>
       </c>
       <c r="X27" s="37">
-        <f t="shared" ref="X27" si="30">X25-X26</f>
+        <f t="shared" ref="X27:Y27" si="30">X25-X26</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y27" s="37">
+        <f t="shared" si="30"/>
+        <v>45.524000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -12577,8 +12941,12 @@
         <f t="shared" si="36"/>
         <v>0.16485871608031916</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y28" s="43">
+        <f t="shared" ref="Y28" si="37">IFERROR(Y27/Y29,0)</f>
+        <v>0.18101066008214745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="47" t="s">
         <v>17</v>
       </c>
@@ -12651,8 +13019,11 @@
       <c r="X29" s="47">
         <v>242.63200000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y29" s="47">
+        <v>251.499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -12672,298 +13043,310 @@
       <c r="R30" s="5"/>
       <c r="V30" s="5"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="16">
-        <f t="shared" ref="B31:Q31" si="37">IFERROR(B18/B16,0)</f>
+        <f t="shared" ref="B31:Q31" si="38">IFERROR(B18/B16,0)</f>
         <v>0.8977080763398364</v>
       </c>
       <c r="C31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.90052490526598505</v>
       </c>
       <c r="D31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.90692161909880342</v>
       </c>
       <c r="E31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.91081655547027218</v>
       </c>
       <c r="F31" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.91287866567732356</v>
       </c>
       <c r="G31" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.91965086874949009</v>
       </c>
       <c r="H31" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.9216000569922348</v>
       </c>
       <c r="I31" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.91360297348118735</v>
       </c>
       <c r="J31" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.91768080561489163</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92407719692711265</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92140193514737145</v>
       </c>
       <c r="M31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92009704955194271</v>
       </c>
       <c r="N31" s="17">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92027000000000003</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.92145538461538468</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.89308454810495619</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.81546220601870212</v>
       </c>
       <c r="R31" s="17">
-        <f t="shared" ref="R31:S31" si="38">IFERROR(R18/R16,0)</f>
+        <f t="shared" ref="R31:S31" si="39">IFERROR(R18/R16,0)</f>
         <v>0.66589845474613685</v>
       </c>
       <c r="S31" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.54833333333333334</v>
       </c>
       <c r="T31" s="16">
-        <f t="shared" ref="T31:V31" si="39">IFERROR(T18/T16,0)</f>
+        <f t="shared" ref="T31:V31" si="40">IFERROR(T18/T16,0)</f>
         <v>0.46308724832214765</v>
       </c>
       <c r="U31" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.35699152542372881</v>
       </c>
       <c r="V31" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.32326820603907636</v>
       </c>
       <c r="W31" s="16">
-        <f t="shared" ref="W31:X31" si="40">IFERROR(W18/W16,0)</f>
+        <f t="shared" ref="W31:X31" si="41">IFERROR(W18/W16,0)</f>
         <v>0.39973958333333331</v>
       </c>
       <c r="X31" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.67073170731707321</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y31" s="16">
+        <f t="shared" ref="Y31" si="42">IFERROR(Y18/Y16,0)</f>
+        <v>0.59765866617994501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="19">
-        <f t="shared" ref="B32:Q32" si="41">IFERROR(B23/B16,0)</f>
+        <f t="shared" ref="B32:Q32" si="43">IFERROR(B23/B16,0)</f>
         <v>-0.45510831048219208</v>
       </c>
       <c r="C32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.21948513741541073</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.15658077108024795</v>
       </c>
       <c r="E32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.15551160181850388</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.25850351109247133</v>
       </c>
       <c r="G32" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.74533476005623733</v>
       </c>
       <c r="H32" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>3.4912196338248949E-2</v>
       </c>
       <c r="I32" s="21">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1.1915013268193317E-2</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>4.736039060115908E-3</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-6.2049840734494786E-2</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.2320651151898712E-2</v>
       </c>
       <c r="M32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.57105514823079395</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-3.7476666666666651E-2</v>
       </c>
       <c r="O32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-3.0280000000000026E-2</v>
       </c>
       <c r="P32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-3.0586005830903748E-2</v>
       </c>
       <c r="Q32" s="19">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.26646555095767005</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" ref="R32:S32" si="42">IFERROR(R23/R16,0)</f>
+        <f t="shared" ref="R32:S32" si="44">IFERROR(R23/R16,0)</f>
         <v>-0.14090728476821182</v>
       </c>
       <c r="S32" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-0.10166666666666667</v>
       </c>
       <c r="T32" s="19">
-        <f t="shared" ref="T32:V32" si="43">IFERROR(T23/T16,0)</f>
+        <f t="shared" ref="T32:V32" si="45">IFERROR(T23/T16,0)</f>
         <v>-6.4429530201342289E-2</v>
       </c>
       <c r="U32" s="19">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-7.5211864406779655E-2</v>
       </c>
       <c r="V32" s="20">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-0.12877442273534637</v>
       </c>
       <c r="W32" s="19">
-        <f t="shared" ref="W32:X32" si="44">IFERROR(W23/W16,0)</f>
+        <f t="shared" ref="W32:X32" si="46">IFERROR(W23/W16,0)</f>
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="X32" s="19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.11585365853658537</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y32" s="19">
+        <f t="shared" ref="Y32" si="47">IFERROR(Y23/Y16,0)</f>
+        <v>0.11347204899664365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="19">
-        <f t="shared" ref="B33:Q33" si="45">IFERROR(B26/B25,0)</f>
+        <f t="shared" ref="B33:Q33" si="48">IFERROR(B26/B25,0)</f>
         <v>0</v>
       </c>
       <c r="C33" s="19">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="19">
-        <f t="shared" si="45"/>
-        <v>9.8712891841394979E-2</v>
-      </c>
-      <c r="E33" s="19">
-        <f t="shared" si="45"/>
-        <v>6.5135213724920038E-2</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="45"/>
-        <v>2.7854356837999552E-2</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="21">
-        <f t="shared" si="45"/>
-        <v>-6.7918352502614035E-2</v>
-      </c>
-      <c r="J33" s="20">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="19">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="19">
-        <f t="shared" si="45"/>
-        <v>4.4338704444684849E-3</v>
-      </c>
-      <c r="M33" s="19">
-        <f t="shared" si="45"/>
-        <v>0.53732569153847054</v>
-      </c>
-      <c r="N33" s="20">
-        <f t="shared" si="45"/>
-        <v>-0.16383112791430376</v>
-      </c>
-      <c r="O33" s="19">
-        <f t="shared" si="45"/>
-        <v>0.76045627376425806</v>
-      </c>
-      <c r="P33" s="19">
-        <f t="shared" si="45"/>
-        <v>0.9554140127388544</v>
-      </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="45"/>
-        <v>7.9419993950393203E-2</v>
-      </c>
-      <c r="R33" s="20">
-        <f t="shared" ref="R33:S33" si="46">IFERROR(R26/R25,0)</f>
-        <v>3.5147408230117132E-2</v>
-      </c>
-      <c r="S33" s="19">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="19">
-        <f t="shared" ref="T33:V33" si="47">IFERROR(T26/T25,0)</f>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="U33" s="19">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="20">
-        <f t="shared" si="47"/>
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="W33" s="19">
-        <f t="shared" ref="W33:X33" si="48">IFERROR(W26/W25,0)</f>
-        <v>-1.1627906976744186E-2</v>
-      </c>
-      <c r="X33" s="19">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="D33" s="19">
+        <f t="shared" si="48"/>
+        <v>9.8712891841394979E-2</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="48"/>
+        <v>6.5135213724920038E-2</v>
+      </c>
+      <c r="F33" s="20">
+        <f t="shared" si="48"/>
+        <v>2.7854356837999552E-2</v>
+      </c>
+      <c r="G33" s="21">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="48"/>
+        <v>-6.7918352502614035E-2</v>
+      </c>
+      <c r="J33" s="20">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="19">
+        <f t="shared" si="48"/>
+        <v>4.4338704444684849E-3</v>
+      </c>
+      <c r="M33" s="19">
+        <f t="shared" si="48"/>
+        <v>0.53732569153847054</v>
+      </c>
+      <c r="N33" s="20">
+        <f t="shared" si="48"/>
+        <v>-0.16383112791430376</v>
+      </c>
+      <c r="O33" s="19">
+        <f t="shared" si="48"/>
+        <v>0.76045627376425806</v>
+      </c>
+      <c r="P33" s="19">
+        <f t="shared" si="48"/>
+        <v>0.9554140127388544</v>
+      </c>
+      <c r="Q33" s="19">
+        <f t="shared" si="48"/>
+        <v>7.9419993950393203E-2</v>
+      </c>
+      <c r="R33" s="20">
+        <f t="shared" ref="R33:S33" si="49">IFERROR(R26/R25,0)</f>
+        <v>3.5147408230117132E-2</v>
+      </c>
+      <c r="S33" s="19">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <f t="shared" ref="T33:V33" si="50">IFERROR(T26/T25,0)</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="U33" s="19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="20">
+        <f t="shared" si="50"/>
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="W33" s="19">
+        <f t="shared" ref="W33:X33" si="51">IFERROR(W26/W25,0)</f>
+        <v>-1.1627906976744186E-2</v>
+      </c>
+      <c r="X33" s="19">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="19">
+        <f t="shared" ref="Y33" si="52">IFERROR(Y26/Y25,0)</f>
+        <v>2.1494282520849454E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -12981,8 +13364,9 @@
       <c r="V34" s="7"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>18</v>
       </c>
@@ -12991,55 +13375,55 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13">
-        <f t="shared" ref="F35:R35" si="49">IFERROR((F16/B16)-1,0)</f>
+        <f t="shared" ref="F35:R35" si="53">IFERROR((F16/B16)-1,0)</f>
         <v>0.46128401153426113</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.21681682032358451</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.27056826860521044</v>
       </c>
       <c r="I35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.34387435791462506</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.32149885472787676</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.2804518169124246</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.25489331766046863</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.24040033038679831</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.22062862374122694</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.21791268502904249</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.21700687271811203</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.295034179860447</v>
       </c>
       <c r="R35" s="13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.51</v>
       </c>
       <c r="S35" s="12">
@@ -13055,7 +13439,7 @@
         <v>1.5818662188514527</v>
       </c>
       <c r="V35" s="13">
-        <f t="shared" ref="V35" si="50">IFERROR((V16/R16)-1,0)</f>
+        <f t="shared" ref="V35" si="54">IFERROR((V16/R16)-1,0)</f>
         <v>1.4856512141280351</v>
       </c>
       <c r="W35" s="12">
@@ -13066,8 +13450,16 @@
         <f>IFERROR((X16/T16)-1,0)</f>
         <v>-0.11946308724832211</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y35" s="12">
+        <f>IFERROR((Y16/U16)-1,0)</f>
+        <v>-0.16424576271186442</v>
+      </c>
+      <c r="Z35" s="12">
+        <f>IFERROR((Z16/V16)-1,0)</f>
+        <v>-5.0621669626998211E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -13076,83 +13468,87 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="15">
-        <f t="shared" ref="F36:X38" si="51">IFERROR((F19/B19)-1,0)</f>
+        <f t="shared" ref="F36:Y38" si="55">IFERROR((F19/B19)-1,0)</f>
         <v>0.61744139316811775</v>
       </c>
       <c r="G36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.22528024739080021</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.20064038125023242</v>
       </c>
       <c r="I36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29176078304829534</v>
       </c>
       <c r="J36" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.20700336254161744</v>
       </c>
       <c r="K36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.23889519843523255</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.2929328950632597</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.18221685610003191</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.28908437174068191</v>
       </c>
       <c r="O36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.27800766478654482</v>
       </c>
       <c r="P36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.26292436652316242</v>
       </c>
       <c r="Q36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.30530480002817328</v>
       </c>
       <c r="R36" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.14730712316225381</v>
       </c>
       <c r="S36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.19550490157009648</v>
       </c>
       <c r="T36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.17743130068177071</v>
       </c>
       <c r="U36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.12415126579432534</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.25266771828894874</v>
       </c>
       <c r="W36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>7.4999999999999956E-2</v>
       </c>
       <c r="X36" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>2.4193548387096753E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y36" s="14">
+        <f t="shared" si="55"/>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -13161,83 +13557,87 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.67157507674661798</v>
       </c>
       <c r="G37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.13289440767778782</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.13573204621910206</v>
       </c>
       <c r="I37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.15796034285567417</v>
       </c>
       <c r="J37" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>6.9010403527714148E-2</v>
       </c>
       <c r="K37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.31706631603248026</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.14947413608070392</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.15343639370096218</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.29593165942986599</v>
       </c>
       <c r="O37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.12581353168010501</v>
       </c>
       <c r="P37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.20190835418456143</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.3361139173521912</v>
       </c>
       <c r="R37" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.1769671719194994</v>
       </c>
       <c r="S37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.26584849079721384</v>
       </c>
       <c r="T37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.40599996892817747</v>
       </c>
       <c r="U37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.32498973853055757</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.26866641499625588</v>
       </c>
       <c r="W37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.16577540106951871</v>
       </c>
       <c r="X37" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.16574585635359118</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y37" s="14">
+        <f t="shared" si="55"/>
+        <v>-0.11956521739130432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -13246,83 +13646,87 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.22737739194876005</v>
       </c>
       <c r="G38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>2.5281831955658691</v>
       </c>
       <c r="H38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.20603890633376709</v>
       </c>
       <c r="I38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-8.3735772790128671E-2</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.21946081118114558</v>
       </c>
       <c r="K38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.70978403265874124</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.31294764511539275</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>4.3838027351459283</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.23104605999429473</v>
       </c>
       <c r="O38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.14650958062522257</v>
       </c>
       <c r="P38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.52029608404966532</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.37242911051212946</v>
       </c>
       <c r="R38" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.71347593582887714</v>
       </c>
       <c r="S38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.35596543104997469</v>
       </c>
       <c r="T38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>6.3174300177598619E-2</v>
       </c>
       <c r="U38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-0.31967179318022498</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.75810914840937937</v>
       </c>
       <c r="W38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>3.6144578313253017E-2</v>
       </c>
       <c r="X38" s="14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>-2.2727272727272707E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y38" s="14">
+        <f t="shared" si="55"/>
+        <v>-6.0606060606060552E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -13336,7 +13740,7 @@
       <c r="R39" s="7"/>
       <c r="V39" s="7"/>
     </row>
-    <row r="40" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>26</v>
       </c>
@@ -13352,43 +13756,43 @@
         <v>283.66100000000006</v>
       </c>
       <c r="G40" s="42">
-        <f t="shared" ref="G40:N40" si="52">G41-G42</f>
+        <f t="shared" ref="G40:N40" si="56">G41-G42</f>
         <v>190.14300000000003</v>
       </c>
       <c r="H40" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>214.60500000000002</v>
       </c>
       <c r="I40" s="37">
-        <f t="shared" ref="I40" si="53">I41-I42</f>
+        <f t="shared" ref="I40" si="57">I41-I42</f>
         <v>140.11099999999999</v>
       </c>
       <c r="J40" s="38">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>187.28699999999998</v>
       </c>
       <c r="K40" s="37">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>222.66899999999998</v>
       </c>
       <c r="L40" s="37">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>300.185</v>
       </c>
       <c r="M40" s="37">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>377.12299999999999</v>
       </c>
       <c r="N40" s="38">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>433.36199999999997</v>
       </c>
       <c r="O40" s="37">
-        <f t="shared" ref="O40:P40" si="54">O41-O42</f>
+        <f t="shared" ref="O40:P40" si="58">O41-O42</f>
         <v>505.166</v>
       </c>
       <c r="P40" s="37">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>952.69499999999994</v>
       </c>
       <c r="Q40" s="37">
@@ -13396,35 +13800,39 @@
         <v>855.90499999999997</v>
       </c>
       <c r="R40" s="38">
-        <f t="shared" ref="R40:S40" si="55">R41-R42</f>
+        <f t="shared" ref="R40:S40" si="59">R41-R42</f>
         <v>809.60999999999979</v>
       </c>
       <c r="S40" s="37">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>926.0329999999999</v>
       </c>
       <c r="T40" s="37">
-        <f t="shared" ref="T40:X40" si="56">T41-T42</f>
+        <f t="shared" ref="T40:X40" si="60">T41-T42</f>
         <v>845</v>
       </c>
       <c r="U40" s="37">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>869</v>
       </c>
       <c r="V40" s="38">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>985</v>
       </c>
       <c r="W40" s="37">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1529</v>
       </c>
       <c r="X40" s="37">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>1712</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y40" s="37">
+        <f t="shared" ref="Y40" si="61">Y41-Y42</f>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>27</v>
       </c>
@@ -13511,8 +13919,12 @@
         <f>1905+1885</f>
         <v>3790</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y41" s="4">
+        <f>1703+2218</f>
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>28</v>
       </c>
@@ -13583,15 +13995,19 @@
         <f>232+8+1838</f>
         <v>2078</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y42" s="4">
+        <f>670+1614</f>
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
       <c r="R43" s="7"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="7"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>72</v>
       </c>
@@ -13646,8 +14062,12 @@
         <f>1985+101</f>
         <v>2086</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y44" s="4">
+        <f>1985+95</f>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>73</v>
       </c>
@@ -13690,8 +14110,11 @@
       <c r="X45" s="4">
         <v>6844</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y45" s="4">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>74</v>
       </c>
@@ -13734,15 +14157,18 @@
       <c r="X46" s="4">
         <v>2540</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y46" s="4">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.15">
       <c r="R47" s="7"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="7"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
@@ -13751,55 +14177,59 @@
         <v>191.21800000000019</v>
       </c>
       <c r="M48" s="41">
-        <f t="shared" ref="M48:R48" si="57">M45-M44-M41</f>
+        <f t="shared" ref="M48:R48" si="62">M45-M44-M41</f>
         <v>217.19099999999958</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>590.07500000000016</v>
       </c>
       <c r="O48" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>296.28299999999967</v>
       </c>
       <c r="P48" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>337.46100000000024</v>
       </c>
       <c r="Q48" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>535.38000000000034</v>
       </c>
       <c r="R48" s="40">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>829.25599999999986</v>
       </c>
       <c r="S48" s="41">
-        <f t="shared" ref="S48:T48" si="58">S45-S44-S41</f>
+        <f t="shared" ref="S48:T48" si="63">S45-S44-S41</f>
         <v>994.9670000000001</v>
       </c>
       <c r="T48" s="41">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>1569</v>
       </c>
       <c r="U48" s="41">
-        <f t="shared" ref="U48:W48" si="59">U45-U44-U41</f>
+        <f t="shared" ref="U48:W48" si="64">U45-U44-U41</f>
         <v>1534</v>
       </c>
       <c r="V48" s="40">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>1214</v>
       </c>
       <c r="W48" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>822</v>
       </c>
       <c r="X48" s="41">
-        <f t="shared" ref="X48" si="60">X45-X44-X41</f>
+        <f t="shared" ref="X48:Y48" si="65">X45-X44-X41</f>
         <v>968</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y48" s="41">
+        <f t="shared" si="65"/>
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>76</v>
       </c>
@@ -13808,43 +14238,43 @@
         <v>2533.587</v>
       </c>
       <c r="M49" s="41">
-        <f t="shared" ref="M49:R49" si="61">M45-M46</f>
+        <f t="shared" ref="M49:R49" si="66">M45-M46</f>
         <v>2660.8229999999999</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2768.4410000000003</v>
       </c>
       <c r="O49" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2853.6809999999996</v>
       </c>
       <c r="P49" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>3319.0190000000002</v>
       </c>
       <c r="Q49" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>3267.1790000000001</v>
       </c>
       <c r="R49" s="40">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>3283.1319999999996</v>
       </c>
       <c r="S49" s="41">
-        <f t="shared" ref="S49:T49" si="62">S45-S46</f>
+        <f t="shared" ref="S49:T49" si="67">S45-S46</f>
         <v>3278</v>
       </c>
       <c r="T49" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>3452</v>
       </c>
       <c r="U49" s="41">
-        <f t="shared" ref="U49:V49" si="63">U45-U46</f>
+        <f t="shared" ref="U49:V49" si="68">U45-U46</f>
         <v>3435</v>
       </c>
       <c r="V49" s="40">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>3416</v>
       </c>
       <c r="W49" s="41">
@@ -13855,8 +14285,12 @@
         <f>X45-X46</f>
         <v>4304</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y49" s="41">
+        <f>Y45-Y46</f>
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="R50" s="7"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -13864,7 +14298,7 @@
       <c r="V50" s="7"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>77</v>
       </c>
@@ -13876,62 +14310,66 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="42">
-        <f t="shared" ref="I51" si="64">SUM(F27:I27)</f>
+        <f t="shared" ref="I51" si="69">SUM(F27:I27)</f>
         <v>-220.43799999999999</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="42">
-        <f t="shared" ref="M51" si="65">SUM(J27:M27)</f>
+        <f t="shared" ref="M51" si="70">SUM(J27:M27)</f>
         <v>-94.420000000000016</v>
       </c>
       <c r="N51" s="38">
-        <f t="shared" ref="N51:X51" si="66">SUM(K27:N27)</f>
+        <f t="shared" ref="N51:Y51" si="71">SUM(K27:N27)</f>
         <v>-108.28400000000001</v>
       </c>
       <c r="O51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-89.778000000000091</v>
       </c>
       <c r="P51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-99.670000000000044</v>
       </c>
       <c r="Q51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-119.88500000000001</v>
       </c>
       <c r="R51" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-170.04399999999998</v>
       </c>
       <c r="S51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-237.70499999999996</v>
       </c>
       <c r="T51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-302.01900000000001</v>
       </c>
       <c r="U51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-303.62899999999996</v>
       </c>
       <c r="V51" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-400</v>
       </c>
       <c r="W51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-416</v>
       </c>
       <c r="X51" s="42">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-311</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y51" s="42">
+        <f t="shared" si="71"/>
+        <v>-166.476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>78</v>
       </c>
@@ -13940,55 +14378,59 @@
         <v>-9.2718347544410301E-3</v>
       </c>
       <c r="M52" s="18">
-        <f t="shared" ref="M52:V52" si="67">M27/M49</f>
+        <f t="shared" ref="M52:V52" si="72">M27/M49</f>
         <v>-2.9004184043809025E-2</v>
       </c>
       <c r="N52" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-6.6716249325884111E-3</v>
       </c>
       <c r="O52" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-1.1700677125439072E-3</v>
       </c>
       <c r="P52" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-2.0668757846821175E-4</v>
       </c>
       <c r="Q52" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-2.9808590224165866E-2</v>
       </c>
       <c r="R52" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-2.0903515301852003E-2</v>
       </c>
       <c r="S52" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-2.1659548505186088E-2</v>
       </c>
       <c r="T52" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-1.8829663962920046E-2</v>
       </c>
       <c r="U52" s="18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-2.8820960698689956E-2</v>
       </c>
       <c r="V52" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>-4.8302107728337235E-2</v>
       </c>
       <c r="W52" s="18">
-        <f t="shared" ref="W52:X52" si="68">W27/W49</f>
+        <f t="shared" ref="W52:X52" si="73">W27/W49</f>
         <v>-2.1625652498135719E-2</v>
       </c>
       <c r="X52" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>9.2936802973977699E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y52" s="18">
+        <f t="shared" ref="Y52" si="74">Y27/Y49</f>
+        <v>9.6001687051876852E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>79</v>
       </c>
@@ -13997,55 +14439,59 @@
         <v>-7.4582250814924783E-3</v>
       </c>
       <c r="M53" s="18">
-        <f t="shared" ref="M53:V53" si="69">M27/M45</f>
+        <f t="shared" ref="M53:V53" si="75">M27/M45</f>
         <v>-2.3889365076859233E-2</v>
       </c>
       <c r="N53" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-5.5230990835602707E-3</v>
       </c>
       <c r="O53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-9.7455674304829597E-4</v>
       </c>
       <c r="P53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1.6323783919739945E-4</v>
       </c>
       <c r="Q53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-2.2695727638218127E-2</v>
       </c>
       <c r="R53" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1.511796502132582E-2</v>
       </c>
       <c r="S53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1.4711976792374638E-2</v>
       </c>
       <c r="T53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1.0697827518104016E-2</v>
       </c>
       <c r="U53" s="18">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-1.6144814090019569E-2</v>
       </c>
       <c r="V53" s="17">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>-2.8099455040871933E-2</v>
       </c>
       <c r="W53" s="18">
-        <f t="shared" ref="W53:X53" si="70">W27/W45</f>
+        <f t="shared" ref="W53:X53" si="76">W27/W45</f>
         <v>-1.3488372093023256E-2</v>
       </c>
       <c r="X53" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5.8445353594389245E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y53" s="18">
+        <f t="shared" ref="Y53" si="77">Y27/Y45</f>
+        <v>6.0804060371310274E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -14054,55 +14500,59 @@
         <v>-0.284246699659983</v>
       </c>
       <c r="M54" s="18">
-        <f t="shared" ref="M54:V54" si="71">M27/(M49-M44)</f>
+        <f t="shared" ref="M54:V54" si="78">M27/(M49-M44)</f>
         <v>-0.18821518110604954</v>
       </c>
       <c r="N54" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-2.2057286846237888E-2</v>
       </c>
       <c r="O54" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-5.3563092638965054E-3</v>
       </c>
       <c r="P54" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-6.2530992036868285E-4</v>
       </c>
       <c r="Q54" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-9.1328697035169826E-2</v>
       </c>
       <c r="R54" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-6.2945522850759245E-2</v>
       </c>
       <c r="S54" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-6.5137614678899086E-2</v>
       </c>
       <c r="T54" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-5.1221434200157602E-2</v>
       </c>
       <c r="U54" s="18">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-7.8633836378077845E-2</v>
       </c>
       <c r="V54" s="17">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>-0.12509476876421532</v>
       </c>
       <c r="W54" s="18">
-        <f t="shared" ref="W54:X54" si="72">W27/(W49-W44)</f>
+        <f t="shared" ref="W54:X54" si="79">W27/(W49-W44)</f>
         <v>-4.5054375970999483E-2</v>
       </c>
       <c r="X54" s="18">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>1.8034265103697024E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y54" s="18">
+        <f t="shared" ref="Y54" si="80">Y27/(Y49-Y44)</f>
+        <v>1.7101427498121713E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>81</v>
       </c>
@@ -14111,61 +14561,65 @@
         <v>-0.12284931334916149</v>
       </c>
       <c r="M55" s="18">
-        <f t="shared" ref="M55:V55" si="73">M27/M48</f>
+        <f t="shared" ref="M55:V55" si="81">M27/M48</f>
         <v>-0.35533240327637977</v>
       </c>
       <c r="N55" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-3.1301105791636641E-2</v>
       </c>
       <c r="O55" s="18">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-1.1269630724678814E-2</v>
       </c>
       <c r="P55" s="18">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-2.0328274971033252E-3</v>
       </c>
       <c r="Q55" s="18">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-0.18190817736934506</v>
       </c>
       <c r="R55" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-8.2759726791244173E-2</v>
       </c>
       <c r="S55" s="18">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-7.1359150604994939E-2</v>
       </c>
       <c r="T55" s="18">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-4.1427660930528999E-2</v>
       </c>
       <c r="U55" s="18">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-6.4537157757496744E-2</v>
       </c>
       <c r="V55" s="17">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>-0.13591433278418452</v>
       </c>
       <c r="W55" s="18">
-        <f t="shared" ref="W55:X55" si="74">W27/W48</f>
+        <f t="shared" ref="W55:X55" si="82">W27/W48</f>
         <v>-0.10583941605839416</v>
       </c>
       <c r="X55" s="18">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>4.1322314049586778E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y55" s="18">
+        <f t="shared" ref="Y55" si="83">Y27/Y48</f>
+        <v>3.0635262449528938E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="R56" s="7"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="V56" s="7"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>82</v>
       </c>
@@ -14174,15 +14628,15 @@
         <v>0.12983870967741939</v>
       </c>
       <c r="J57" s="17">
-        <f t="shared" ref="J57:O58" si="75">J13/F13-1</f>
+        <f t="shared" ref="J57:O58" si="84">J13/F13-1</f>
         <v>6.7948717948717929E-2</v>
       </c>
       <c r="K57" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>6.0119047619047628E-2</v>
       </c>
       <c r="L57" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>6.8292682926829107E-2</v>
       </c>
       <c r="M57" s="18">
@@ -14190,11 +14644,11 @@
         <v>8.2084225553176404E-2</v>
       </c>
       <c r="N57" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>5.3421368547418968E-2</v>
       </c>
       <c r="O57" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>4.491858506457036E-2</v>
       </c>
       <c r="P57" s="18"/>
@@ -14204,7 +14658,7 @@
       <c r="T57" s="18"/>
       <c r="V57" s="17"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>83</v>
       </c>
@@ -14213,27 +14667,27 @@
         <v>0.18943911764035337</v>
       </c>
       <c r="J58" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0.23741789518336609</v>
       </c>
       <c r="K58" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0.20783776104035567</v>
       </c>
       <c r="L58" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0.17467182703377193</v>
       </c>
       <c r="M58" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0.14630663777830111</v>
       </c>
       <c r="N58" s="17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0.15872779894751199</v>
       </c>
       <c r="O58" s="18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>0.16555749169087841</v>
       </c>
       <c r="P58" s="18"/>
@@ -14243,73 +14697,89 @@
       <c r="T58" s="18"/>
       <c r="V58" s="17"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="R59" s="7"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="V59" s="7"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R60" s="17">
-        <f t="shared" ref="R60:X60" si="76">R3/N3-1</f>
+        <f t="shared" ref="R60:Z60" si="85">R3/N3-1</f>
         <v>6.0498220640569311E-2</v>
       </c>
       <c r="S60" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="T60" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>6.6878980891719841E-2</v>
       </c>
       <c r="U60" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>6.3122923588039948E-2</v>
       </c>
       <c r="V60" s="17">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>0.11073825503355694</v>
       </c>
       <c r="W60" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>-0.13580246913580252</v>
       </c>
       <c r="X60" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>0.23880597014925375</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y60" s="16">
+        <f t="shared" si="85"/>
+        <v>0.32449375000000003</v>
+      </c>
+      <c r="Z60" s="16">
+        <f t="shared" si="85"/>
+        <v>0.25377643504531733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>100</v>
       </c>
       <c r="R61" s="17"/>
       <c r="S61" s="16"/>
       <c r="T61" s="16">
-        <f t="shared" ref="T61:X62" si="77">T4/P4-1</f>
+        <f t="shared" ref="T61:Z62" si="86">T4/P4-1</f>
         <v>34</v>
       </c>
       <c r="U61" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>13.583887585556388</v>
       </c>
       <c r="V61" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>5.015625</v>
       </c>
       <c r="W61" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.82329317269076308</v>
       </c>
       <c r="X61" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>-0.51428571428571423</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y61" s="16">
+        <f t="shared" si="86"/>
+        <v>-0.49561359867330024</v>
+      </c>
+      <c r="Z61" s="16">
+        <f t="shared" si="86"/>
+        <v>-0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>84</v>
       </c>
@@ -14322,32 +14792,40 @@
         <v>0.42105263157894735</v>
       </c>
       <c r="T62" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="U62" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>-9.7938144329897003E-2</v>
       </c>
       <c r="V62" s="17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>-7.407407407407407E-2</v>
       </c>
       <c r="W62" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.2592592592592593</v>
       </c>
       <c r="X62" s="16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>1.1600000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y62" s="16">
+        <f t="shared" si="86"/>
+        <v>1.9032857142857145</v>
+      </c>
+      <c r="Z62" s="16">
+        <f t="shared" si="86"/>
+        <v>1.3599999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
       <c r="R63" s="7"/>
       <c r="S63" s="2"/>
       <c r="V63" s="7"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="I64" s="18"/>
       <c r="M64" s="18"/>
       <c r="N64" s="17"/>
@@ -14408,24 +14886,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B4:D16"/>
+  <dimension ref="B4:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
@@ -14433,10 +14911,10 @@
         <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>116</v>
+        <v>122</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
@@ -14444,10 +14922,10 @@
         <v>96</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
@@ -14455,10 +14933,10 @@
         <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
@@ -14468,8 +14946,8 @@
       <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>120</v>
+      <c r="D9" s="62" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
@@ -14477,48 +14955,81 @@
         <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>133</v>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
